--- a/Lab_3/Segway_files/Outputs/output11.xlsx
+++ b/Lab_3/Segway_files/Outputs/output11.xlsx
@@ -409,28 +409,28 @@
     </row>
     <row r="2" spans="2:10">
       <c r="B2">
-        <v>744.2827766884041</v>
+        <v>12871.60935595223</v>
       </c>
       <c r="C2">
-        <v>804.4907233916787</v>
+        <v>12932.59735172211</v>
       </c>
       <c r="D2">
-        <v>-0.003373611319278411</v>
+        <v>0.0003361961528618479</v>
       </c>
       <c r="E2">
-        <v>-0.9961330562768871</v>
+        <v>-0.991359898230757</v>
       </c>
       <c r="F2">
-        <v>0.01885763657539288</v>
+        <v>0.002429716187351801</v>
       </c>
       <c r="G2">
-        <v>224.23</v>
+        <v>7005.04</v>
       </c>
       <c r="H2">
-        <v>799.9200000000001</v>
+        <v>13000.03</v>
       </c>
       <c r="I2">
-        <v>-0.0013</v>
+        <v>1.81e-06</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -438,1536 +438,1536 @@
     </row>
     <row r="3" spans="2:10">
       <c r="B3">
-        <v>802.9371324640886</v>
+        <v>13018.45625957779</v>
       </c>
       <c r="C3">
-        <v>787.1600342310884</v>
+        <v>12787.36859692261</v>
       </c>
       <c r="D3">
-        <v>-0.05375482357182117</v>
+        <v>-0.08813656703707112</v>
       </c>
       <c r="E3">
-        <v>-1.043993795837293</v>
+        <v>-0.9503913319628384</v>
       </c>
       <c r="F3">
-        <v>-0.003072005660600639</v>
+        <v>-0.01128885657703435</v>
       </c>
       <c r="G3">
-        <v>225.255389758545</v>
+        <v>7015.334921874983</v>
       </c>
       <c r="H3">
-        <v>799.9186669925631</v>
+        <v>13000.03001863381</v>
       </c>
       <c r="I3">
-        <v>-0.004555208333333333</v>
+        <v>-0.005548013113207548</v>
       </c>
       <c r="J3">
-        <v>-0.05208333333333334</v>
+        <v>-0.08879716981132076</v>
       </c>
     </row>
     <row r="4" spans="2:10">
       <c r="B4">
-        <v>783.6657842064149</v>
+        <v>12818.43120667534</v>
       </c>
       <c r="C4">
-        <v>815.2329333233287</v>
+        <v>13082.45931897938</v>
       </c>
       <c r="D4">
-        <v>-0.1029636793339842</v>
+        <v>-0.1747452869270197</v>
       </c>
       <c r="E4">
-        <v>-1.006503374570053</v>
+        <v>-1.011157568015535</v>
       </c>
       <c r="F4">
-        <v>-0.01700498150894824</v>
+        <v>0.02267971523043203</v>
       </c>
       <c r="G4">
-        <v>227.3061497318053</v>
+        <v>7035.924448743473</v>
       </c>
       <c r="H4">
-        <v>799.9093252890299</v>
+        <v>12999.91578649671</v>
       </c>
       <c r="I4">
-        <v>-0.011065625</v>
+        <v>-0.01664765933962264</v>
       </c>
       <c r="J4">
-        <v>-0.1041666666666667</v>
+        <v>-0.1775943396226415</v>
       </c>
     </row>
     <row r="5" spans="2:10">
       <c r="B5">
-        <v>790.5496130468767</v>
+        <v>12980.71248390003</v>
       </c>
       <c r="C5">
-        <v>813.2473373107387</v>
+        <v>13188.11329447499</v>
       </c>
       <c r="D5">
-        <v>-0.1570306453894513</v>
+        <v>-0.2678058915045207</v>
       </c>
       <c r="E5">
-        <v>-1.015829462405776</v>
+        <v>-0.9679858929437959</v>
       </c>
       <c r="F5">
-        <v>-0.02848073432432597</v>
+        <v>0.008402863114759594</v>
       </c>
       <c r="G5">
-        <v>230.3821332730931</v>
+        <v>7066.804934694902</v>
       </c>
       <c r="H5">
-        <v>799.8752862193052</v>
+        <v>12999.40165118887</v>
       </c>
       <c r="I5">
-        <v>-0.02083125</v>
+        <v>-0.03329712867924528</v>
       </c>
       <c r="J5">
-        <v>-0.15625</v>
+        <v>-0.2663915094339623</v>
       </c>
     </row>
     <row r="6" spans="2:10">
       <c r="B6">
-        <v>776.8195584741237</v>
+        <v>12820.82721203099</v>
       </c>
       <c r="C6">
-        <v>802.4030362643394</v>
+        <v>13142.25689324558</v>
       </c>
       <c r="D6">
-        <v>-0.2022938223031184</v>
+        <v>-0.3565846176566289</v>
       </c>
       <c r="E6">
-        <v>-0.9980754971179817</v>
+        <v>-1.022408791125675</v>
       </c>
       <c r="F6">
-        <v>-0.03146021942421869</v>
+        <v>-0.03928980819051757</v>
       </c>
       <c r="G6">
-        <v>234.4828058872553</v>
+        <v>7107.961796369322</v>
       </c>
       <c r="H6">
-        <v>799.7898517247112</v>
+        <v>12998.03073918939</v>
       </c>
       <c r="I6">
-        <v>-0.03385208333333333</v>
+        <v>-0.05549642113207547</v>
       </c>
       <c r="J6">
-        <v>-0.2083333333333333</v>
+        <v>-0.355188679245283</v>
       </c>
     </row>
     <row r="7" spans="2:10">
       <c r="B7">
-        <v>770.6765185796216</v>
+        <v>13086.29982555874</v>
       </c>
       <c r="C7">
-        <v>821.9687134801451</v>
+        <v>12990.73260897761</v>
       </c>
       <c r="D7">
-        <v>-0.2684253918924741</v>
+        <v>-0.4411996390358315</v>
       </c>
       <c r="E7">
-        <v>-1.021244012500575</v>
+        <v>-1.021416969760308</v>
       </c>
       <c r="F7">
-        <v>-0.048337193268461</v>
+        <v>-0.08116167801911507</v>
       </c>
       <c r="G7">
-        <v>239.6068216420896</v>
+        <v>7159.357158977647</v>
       </c>
       <c r="H7">
-        <v>799.6163268269103</v>
+        <v>12995.17554871107</v>
       </c>
       <c r="I7">
-        <v>-0.050128125</v>
+        <v>-0.0832455366981132</v>
       </c>
       <c r="J7">
-        <v>-0.2604166666666667</v>
+        <v>-0.4439858490566038</v>
       </c>
     </row>
     <row r="8" spans="2:10">
       <c r="B8">
-        <v>772.9014086386032</v>
+        <v>12882.76518365721</v>
       </c>
       <c r="C8">
-        <v>832.5033918755751</v>
+        <v>13062.9011726034</v>
       </c>
       <c r="D8">
-        <v>-0.3140666705478725</v>
+        <v>-0.5293472854367788</v>
       </c>
       <c r="E8">
-        <v>-1.018309307043241</v>
+        <v>-1.030951539729233</v>
       </c>
       <c r="F8">
-        <v>-0.07251321123001853</v>
+        <v>-0.05892680791304789</v>
       </c>
       <c r="G8">
-        <v>245.7514371169743</v>
+        <v>7220.912787948427</v>
       </c>
       <c r="H8">
-        <v>799.3080505158317</v>
+        <v>12990.03944777198</v>
       </c>
       <c r="I8">
-        <v>-0.069659375</v>
+        <v>-0.1165444753773585</v>
       </c>
       <c r="J8">
-        <v>-0.3125</v>
+        <v>-0.5327830188679246</v>
       </c>
     </row>
     <row r="9" spans="2:10">
       <c r="B9">
-        <v>746.2965106826447</v>
+        <v>12616.478563007</v>
       </c>
       <c r="C9">
-        <v>793.2629850780434</v>
+        <v>13360.42358765115</v>
       </c>
       <c r="D9">
-        <v>-0.3622197249088258</v>
+        <v>-0.6204016149574251</v>
       </c>
       <c r="E9">
-        <v>-1.010388411970069</v>
+        <v>-0.9769058902288326</v>
       </c>
       <c r="F9">
-        <v>-0.09139891936889541</v>
+        <v>-0.162880311216586</v>
       </c>
       <c r="G9">
-        <v>252.9117638112952</v>
+        <v>7292.488382928742</v>
       </c>
       <c r="H9">
-        <v>798.8084582934621</v>
+        <v>12981.65973373037</v>
       </c>
       <c r="I9">
-        <v>-0.09244583333333332</v>
+        <v>-0.1553932371698113</v>
       </c>
       <c r="J9">
-        <v>-0.3645833333333333</v>
+        <v>-0.6215801886792452</v>
       </c>
     </row>
     <row r="10" spans="2:10">
       <c r="B10">
-        <v>708.5701722116637</v>
+        <v>12767.56345739133</v>
       </c>
       <c r="C10">
-        <v>807.2947428652101</v>
+        <v>13217.24749942998</v>
       </c>
       <c r="D10">
-        <v>-0.4197698076428924</v>
+        <v>-0.6990246031711986</v>
       </c>
       <c r="E10">
-        <v>-0.9833875279394098</v>
+        <v>-0.9578294759893617</v>
       </c>
       <c r="F10">
-        <v>-0.144372873676002</v>
+        <v>-0.1911821989427311</v>
       </c>
       <c r="G10">
-        <v>261.0798608632726</v>
+        <v>7373.855388932343</v>
       </c>
       <c r="H10">
-        <v>798.0511932704341</v>
+        <v>12968.91308772444</v>
       </c>
       <c r="I10">
-        <v>-0.1184875</v>
+        <v>-0.1997918220754717</v>
       </c>
       <c r="J10">
-        <v>-0.4166666666666667</v>
+        <v>-0.710377358490566</v>
       </c>
     </row>
     <row r="11" spans="2:10">
       <c r="B11">
-        <v>697.031676763269</v>
+        <v>12664.86942126534</v>
       </c>
       <c r="C11">
-        <v>787.3314216251155</v>
+        <v>13615.52214522959</v>
       </c>
       <c r="D11">
-        <v>-0.4661013593601209</v>
+        <v>-0.795817663028911</v>
       </c>
       <c r="E11">
-        <v>-0.9870496793688773</v>
+        <v>-0.9908645207570482</v>
       </c>
       <c r="F11">
-        <v>-0.1761485878167596</v>
+        <v>-0.2549213761563981</v>
       </c>
       <c r="G11">
-        <v>270.2436713498629</v>
+        <v>7464.666598674302</v>
       </c>
       <c r="H11">
-        <v>796.9602863052315</v>
+        <v>12950.52442505956</v>
       </c>
       <c r="I11">
-        <v>-0.147784375</v>
+        <v>-0.2497402300943396</v>
       </c>
       <c r="J11">
-        <v>-0.46875</v>
+        <v>-0.7991745283018868</v>
       </c>
     </row>
     <row r="12" spans="2:10">
       <c r="B12">
-        <v>683.7088276420779</v>
+        <v>12980.32783636959</v>
       </c>
       <c r="C12">
-        <v>783.0533463479298</v>
+        <v>13390.58796834004</v>
       </c>
       <c r="D12">
-        <v>-0.5168646954953151</v>
+        <v>-0.8863959696107653</v>
       </c>
       <c r="E12">
-        <v>-0.9669132110876766</v>
+        <v>-0.9608170800003898</v>
       </c>
       <c r="F12">
-        <v>-0.1687255670159302</v>
+        <v>-0.3674271696361123</v>
       </c>
       <c r="G12">
-        <v>280.3858074540848</v>
+        <v>7564.421988511976</v>
       </c>
       <c r="H12">
-        <v>795.4504291506545</v>
+        <v>12925.08029332807</v>
       </c>
       <c r="I12">
-        <v>-0.1803364583333333</v>
+        <v>-0.3052384612264151</v>
       </c>
       <c r="J12">
-        <v>-0.5208333333333334</v>
+        <v>-0.8879716981132075</v>
       </c>
     </row>
     <row r="13" spans="2:10">
       <c r="B13">
-        <v>712.5339550333033</v>
+        <v>13454.25015616498</v>
       </c>
       <c r="C13">
-        <v>789.6510274455871</v>
+        <v>13730.5304601624</v>
       </c>
       <c r="D13">
-        <v>-0.5772892416505772</v>
+        <v>-0.9771304860600294</v>
       </c>
       <c r="E13">
-        <v>-0.9496833273870335</v>
+        <v>-0.9318782089782056</v>
       </c>
       <c r="F13">
-        <v>-0.1942737707198844</v>
+        <v>-0.3801100664531324</v>
       </c>
       <c r="G13">
-        <v>291.4821924958987</v>
+        <v>7672.431454654218</v>
       </c>
       <c r="H13">
-        <v>793.4273678569238</v>
+        <v>12891.04809372883</v>
       </c>
       <c r="I13">
-        <v>-0.21614375</v>
+        <v>-0.3662865154716981</v>
       </c>
       <c r="J13">
-        <v>-0.5729166666666666</v>
+        <v>-0.9767688679245283</v>
       </c>
     </row>
     <row r="14" spans="2:10">
       <c r="B14">
-        <v>730.2251326052165</v>
+        <v>13120.38757607736</v>
       </c>
       <c r="C14">
-        <v>847.7224503724321</v>
+        <v>14439.98728249867</v>
       </c>
       <c r="D14">
-        <v>-0.6307805204373675</v>
+        <v>-1.07576452030412</v>
       </c>
       <c r="E14">
-        <v>-0.9259160398036655</v>
+        <v>-0.9084805539773252</v>
       </c>
       <c r="F14">
-        <v>-0.253557977536074</v>
+        <v>-0.4063716415615282</v>
       </c>
       <c r="G14">
-        <v>303.5005713170565</v>
+        <v>7787.775401176084</v>
       </c>
       <c r="H14">
-        <v>790.7884466789036</v>
+        <v>12846.80248418235</v>
       </c>
       <c r="I14">
-        <v>-0.25520625</v>
+        <v>-0.4328843928301886</v>
       </c>
       <c r="J14">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="15" spans="2:10">
       <c r="B15">
-        <v>699.3474839544267</v>
+        <v>14131.32495543497</v>
       </c>
       <c r="C15">
-        <v>830.9744085222087</v>
+        <v>14581.49810548606</v>
       </c>
       <c r="D15">
-        <v>-0.621386198753763</v>
+        <v>-1.061046308432263</v>
       </c>
       <c r="E15">
-        <v>-0.9304759688565581</v>
+        <v>-0.8743782996798669</v>
       </c>
       <c r="F15">
-        <v>-0.2704669693164632</v>
+        <v>-0.4851741901819928</v>
       </c>
       <c r="G15">
-        <v>315.406725363536</v>
+        <v>7899.919165084514</v>
       </c>
       <c r="H15">
-        <v>787.6821900420244</v>
+        <v>12794.97897426813</v>
       </c>
       <c r="I15">
-        <v>-0.29426875</v>
+        <v>-0.4994822701886792</v>
       </c>
       <c r="J15">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="16" spans="2:10">
       <c r="B16">
-        <v>741.4932036631469</v>
+        <v>13994.01665610748</v>
       </c>
       <c r="C16">
-        <v>830.9156826158783</v>
+        <v>14901.02334208241</v>
       </c>
       <c r="D16">
-        <v>-0.6229908711432687</v>
+        <v>-1.069724841006966</v>
       </c>
       <c r="E16">
-        <v>-0.923319982744248</v>
+        <v>-0.8556626431699306</v>
       </c>
       <c r="F16">
-        <v>-0.320326266596664</v>
+        <v>-0.5309416724669415</v>
       </c>
       <c r="G16">
-        <v>327.1824895960037</v>
+        <v>8008.365541503509</v>
       </c>
       <c r="H16">
-        <v>784.1133371151036</v>
+        <v>12735.8073306796</v>
       </c>
       <c r="I16">
-        <v>-0.33333125</v>
+        <v>-0.5660801475471697</v>
       </c>
       <c r="J16">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="17" spans="2:10">
       <c r="B17">
-        <v>697.7259726086962</v>
+        <v>14919.96590716092</v>
       </c>
       <c r="C17">
-        <v>847.7147681487659</v>
+        <v>14088.14776892516</v>
       </c>
       <c r="D17">
-        <v>-0.627846378189136</v>
+        <v>-1.062137912873556</v>
       </c>
       <c r="E17">
-        <v>-0.9508608120172036</v>
+        <v>-0.8067762944487259</v>
       </c>
       <c r="F17">
-        <v>-0.3657637624059922</v>
+        <v>-0.6066302998226721</v>
       </c>
       <c r="G17">
-        <v>338.8098979088949</v>
+        <v>8112.633718435497</v>
       </c>
       <c r="H17">
-        <v>780.0873328431283</v>
+        <v>12669.54989907635</v>
       </c>
       <c r="I17">
-        <v>-0.37239375</v>
+        <v>-0.6326780249056603</v>
       </c>
       <c r="J17">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="18" spans="2:10">
       <c r="B18">
-        <v>700.5995378206214</v>
+        <v>15231.0001357619</v>
       </c>
       <c r="C18">
-        <v>806.4581190278057</v>
+        <v>13220.58655240341</v>
       </c>
       <c r="D18">
-        <v>-0.6215736701431114</v>
+        <v>-1.065953061935691</v>
       </c>
       <c r="E18">
-        <v>-0.9227261173452361</v>
+        <v>-0.7603610517878678</v>
       </c>
       <c r="F18">
-        <v>-0.4240443480118248</v>
+        <v>-0.6665658039073521</v>
       </c>
       <c r="G18">
-        <v>350.2712105410302</v>
+        <v>8212.261408507775</v>
       </c>
       <c r="H18">
-        <v>775.6103196399856</v>
+        <v>12596.50044093845</v>
       </c>
       <c r="I18">
-        <v>-0.41145625</v>
+        <v>-0.6992759022641508</v>
       </c>
       <c r="J18">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="19" spans="2:10">
       <c r="B19">
-        <v>732.5534668927164</v>
+        <v>16161.70971506443</v>
       </c>
       <c r="C19">
-        <v>837.8677277446792</v>
+        <v>11913.22149201944</v>
       </c>
       <c r="D19">
-        <v>-0.6236265356371138</v>
+        <v>-1.065357278676027</v>
       </c>
       <c r="E19">
-        <v>-0.8862876949066751</v>
+        <v>-0.719365511902849</v>
       </c>
       <c r="F19">
-        <v>-0.4518428646843365</v>
+        <v>-0.6595424682880399</v>
       </c>
       <c r="G19">
-        <v>361.5489411409004</v>
+        <v>8306.806898587465</v>
       </c>
       <c r="H19">
-        <v>770.6891280170747</v>
+        <v>12516.98283113427</v>
       </c>
       <c r="I19">
-        <v>-0.45051875</v>
+        <v>-0.7658737796226414</v>
       </c>
       <c r="J19">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="20" spans="2:10">
       <c r="B20">
-        <v>741.6839337571666</v>
+        <v>16435.13904133493</v>
       </c>
       <c r="C20">
-        <v>783.4854752169707</v>
+        <v>11515.4649964421</v>
       </c>
       <c r="D20">
-        <v>-0.6261797171880036</v>
+        <v>-1.058369780215092</v>
       </c>
       <c r="E20">
-        <v>-0.8683131250151513</v>
+        <v>-0.6740688691195746</v>
       </c>
       <c r="F20">
-        <v>-0.5050193924904387</v>
+        <v>-0.7248414819735483</v>
       </c>
       <c r="G20">
-        <v>372.6258834453292</v>
+        <v>8395.85100817774</v>
       </c>
       <c r="H20">
-        <v>765.3312661620982</v>
+        <v>12431.34962197652</v>
       </c>
       <c r="I20">
-        <v>-0.48958125</v>
+        <v>-0.8324716569811319</v>
       </c>
       <c r="J20">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="21" spans="2:10">
       <c r="B21">
-        <v>712.7048690316497</v>
+        <v>15556.09013755442</v>
       </c>
       <c r="C21">
-        <v>767.7374750193344</v>
+        <v>10800.54047133382</v>
       </c>
       <c r="D21">
-        <v>-0.6265356248363121</v>
+        <v>-1.057889368052287</v>
       </c>
       <c r="E21">
-        <v>-0.8622905659522804</v>
+        <v>-0.6169824371044008</v>
       </c>
       <c r="F21">
-        <v>-0.4957792136358892</v>
+        <v>-0.7722316174157623</v>
       </c>
       <c r="G21">
-        <v>383.4851375308089</v>
+        <v>8478.998947912482</v>
       </c>
       <c r="H21">
-        <v>759.5449084839341</v>
+        <v>12339.98048013286</v>
       </c>
       <c r="I21">
-        <v>-0.52864375</v>
+        <v>-0.8990695343396224</v>
       </c>
       <c r="J21">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="22" spans="2:10">
       <c r="B22">
-        <v>734.249749218133</v>
+        <v>14735.31078218989</v>
       </c>
       <c r="C22">
-        <v>742.3531087667266</v>
+        <v>10531.90643695699</v>
       </c>
       <c r="D22">
-        <v>-0.6231141381496792</v>
+        <v>-1.064877393841818</v>
       </c>
       <c r="E22">
-        <v>-0.8299335474283558</v>
+        <v>-0.5144336033120189</v>
       </c>
       <c r="F22">
-        <v>-0.5669037934075284</v>
+        <v>-0.8323576304856578</v>
       </c>
       <c r="G22">
-        <v>394.1101355974583</v>
+        <v>8555.882069909501</v>
       </c>
       <c r="H22">
-        <v>753.3388831410635</v>
+        <v>12243.28050332123</v>
       </c>
       <c r="I22">
-        <v>-0.56770625</v>
+        <v>-0.965667411698113</v>
       </c>
       <c r="J22">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="23" spans="2:10">
       <c r="B23">
-        <v>745.7075186102297</v>
+        <v>14137.94882724143</v>
       </c>
       <c r="C23">
-        <v>706.3930611482352</v>
+        <v>9898.682404311814</v>
       </c>
       <c r="D23">
-        <v>-0.6261577228714086</v>
+        <v>-1.068020980192057</v>
       </c>
       <c r="E23">
-        <v>-0.808434120463012</v>
+        <v>-0.5298427554784149</v>
       </c>
       <c r="F23">
-        <v>-0.5668000455012077</v>
+        <v>-0.9015934672998773</v>
       </c>
       <c r="G23">
-        <v>404.4846672462647</v>
+        <v>8626.159502221873</v>
       </c>
       <c r="H23">
-        <v>746.7226585725826</v>
+        <v>12141.67842425314</v>
       </c>
       <c r="I23">
-        <v>-0.60676875</v>
+        <v>-1.032265289056604</v>
       </c>
       <c r="J23">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="24" spans="2:10">
       <c r="B24">
-        <v>692.0132651913228</v>
+        <v>13633.53502529229</v>
       </c>
       <c r="C24">
-        <v>656.0694127281159</v>
+        <v>9855.221413863286</v>
       </c>
       <c r="D24">
-        <v>-0.6199148080877797</v>
+        <v>-1.067888658393276</v>
       </c>
       <c r="E24">
-        <v>-0.7705712327987597</v>
+        <v>-0.4685421328199436</v>
       </c>
       <c r="F24">
-        <v>-0.5932991752279443</v>
+        <v>-0.8768471677484159</v>
       </c>
       <c r="G24">
-        <v>414.5929042110446</v>
+        <v>8689.519660140822</v>
       </c>
       <c r="H24">
-        <v>739.7063290523482</v>
+        <v>12035.62470978795</v>
       </c>
       <c r="I24">
-        <v>-0.64583125</v>
+        <v>-1.098863166415094</v>
       </c>
       <c r="J24">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="25" spans="2:10">
       <c r="B25">
-        <v>754.838362500569</v>
+        <v>13090.09503184615</v>
       </c>
       <c r="C25">
-        <v>661.4205828859999</v>
+        <v>9255.265365257588</v>
       </c>
       <c r="D25">
-        <v>-0.6320804554444103</v>
+        <v>-1.061528466844815</v>
       </c>
       <c r="E25">
-        <v>-0.7911473628894797</v>
+        <v>-0.422700415113027</v>
       </c>
       <c r="F25">
-        <v>-0.6461599333828126</v>
+        <v>-0.9395127345826108</v>
       </c>
       <c r="G25">
-        <v>424.4194245073905</v>
+        <v>8745.681627649588</v>
       </c>
       <c r="H25">
-        <v>732.3005992882967</v>
+        <v>11925.58956372578</v>
       </c>
       <c r="I25">
-        <v>-0.68489375</v>
+        <v>-1.165461043773585</v>
       </c>
       <c r="J25">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="26" spans="2:10">
       <c r="B26">
-        <v>753.9783107357292</v>
+        <v>12394.5101407992</v>
       </c>
       <c r="C26">
-        <v>662.8645750354858</v>
+        <v>9198.571498920557</v>
       </c>
       <c r="D26">
-        <v>-0.6306656187227144</v>
+        <v>-1.062732323483961</v>
       </c>
       <c r="E26">
-        <v>-0.7443323903574517</v>
+        <v>-0.3243319860237106</v>
       </c>
       <c r="F26">
-        <v>-0.6767729747016065</v>
+        <v>-0.9859435948149526</v>
       </c>
       <c r="G26">
-        <v>433.9492359617591</v>
+        <v>8794.396402903416</v>
       </c>
       <c r="H26">
-        <v>724.5167680904327</v>
+        <v>11812.06084209399</v>
       </c>
       <c r="I26">
-        <v>-0.72395625</v>
+        <v>-1.232058921132075</v>
       </c>
       <c r="J26">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="27" spans="2:10">
       <c r="B27">
-        <v>760.8661248467374</v>
+        <v>12306.78591947758</v>
       </c>
       <c r="C27">
-        <v>648.3595874893787</v>
+        <v>9241.967660465076</v>
       </c>
       <c r="D27">
-        <v>-0.6231646722126609</v>
+        <v>-1.068496840171805</v>
       </c>
       <c r="E27">
-        <v>-0.7480200266873517</v>
+        <v>-0.292168670843923</v>
       </c>
       <c r="F27">
-        <v>-0.685278044998352</v>
+        <v>-0.9609088253440045</v>
       </c>
       <c r="G27">
-        <v>443.1677990848045</v>
+        <v>8835.448002213643</v>
       </c>
       <c r="H27">
-        <v>716.3667111324057</v>
+        <v>11695.54189017006</v>
       </c>
       <c r="I27">
-        <v>-0.76301875</v>
+        <v>-1.298656798490566</v>
       </c>
       <c r="J27">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="28" spans="2:10">
       <c r="B28">
-        <v>795.8759874251676</v>
+        <v>11714.77378785215</v>
       </c>
       <c r="C28">
-        <v>652.7023014365561</v>
+        <v>9161.047546877813</v>
       </c>
       <c r="D28">
-        <v>-0.6254402694772119</v>
+        <v>-1.064218574682636</v>
       </c>
       <c r="E28">
-        <v>-0.6885486167916527</v>
+        <v>-0.1870314664153696</v>
       </c>
       <c r="F28">
-        <v>-0.70569415656893</v>
+        <v>-1.00027295723896</v>
       </c>
       <c r="G28">
-        <v>452.0610492540569</v>
+        <v>8868.654417641234</v>
       </c>
       <c r="H28">
-        <v>707.862862832974</v>
+        <v>11576.54931083072</v>
       </c>
       <c r="I28">
-        <v>-0.80208125</v>
+        <v>-1.365254675849056</v>
       </c>
       <c r="J28">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="29" spans="2:10">
       <c r="B29">
-        <v>799.498441740266</v>
+        <v>11872.42357873062</v>
       </c>
       <c r="C29">
-        <v>617.6253765921783</v>
+        <v>8965.112602733669</v>
       </c>
       <c r="D29">
-        <v>-0.6296554392937633</v>
+        <v>-1.054666910521511</v>
       </c>
       <c r="E29">
-        <v>-0.5978648930547938</v>
+        <v>-0.1393518948491266</v>
       </c>
       <c r="F29">
-        <v>-0.7653262054035712</v>
+        <v>-0.9641213736075829</v>
       </c>
       <c r="G29">
-        <v>460.615418172105</v>
+        <v>8893.868423954131</v>
       </c>
       <c r="H29">
-        <v>699.0181973849998</v>
+        <v>11455.61067412171</v>
       </c>
       <c r="I29">
-        <v>-0.84114375</v>
+        <v>-1.431852553207547</v>
       </c>
       <c r="J29">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="30" spans="2:10">
       <c r="B30">
-        <v>859.4886169221444</v>
+        <v>11148.92801068783</v>
       </c>
       <c r="C30">
-        <v>637.6779298906305</v>
+        <v>9092.963933926907</v>
       </c>
       <c r="D30">
-        <v>-0.6263241486930731</v>
+        <v>-1.065652671097538</v>
       </c>
       <c r="E30">
-        <v>-0.6137715650657573</v>
+        <v>-0.07423580530573175</v>
       </c>
       <c r="F30">
-        <v>-0.7544462995974017</v>
+        <v>-0.9922431703876171</v>
       </c>
       <c r="G30">
-        <v>468.8178545675421</v>
+        <v>8910.978231370673</v>
       </c>
       <c r="H30">
-        <v>689.8462089609193</v>
+        <v>11333.2621782031</v>
       </c>
       <c r="I30">
-        <v>-0.88020625</v>
+        <v>-1.498450430566037</v>
       </c>
       <c r="J30">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="31" spans="2:10">
       <c r="B31">
-        <v>848.6242935886153</v>
+        <v>11594.11887775316</v>
       </c>
       <c r="C31">
-        <v>611.1816232400848</v>
+        <v>8936.465081113138</v>
       </c>
       <c r="D31">
-        <v>-0.6303241967136297</v>
+        <v>-1.056306982867879</v>
       </c>
       <c r="E31">
-        <v>-0.6065742897232462</v>
+        <v>-0.02919867084501675</v>
       </c>
       <c r="F31">
-        <v>-0.812360225559676</v>
+        <v>-1.02175250612494</v>
       </c>
       <c r="G31">
-        <v>476.6558441070936</v>
+        <v>8919.907981195032</v>
       </c>
       <c r="H31">
-        <v>680.3608911248878</v>
+        <v>11210.04627204057</v>
       </c>
       <c r="I31">
-        <v>-0.91926875</v>
+        <v>-1.565048307924528</v>
       </c>
       <c r="J31">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="32" spans="2:10">
       <c r="B32">
-        <v>834.1797592383145</v>
+        <v>11176.10363345952</v>
       </c>
       <c r="C32">
-        <v>573.0041004981587</v>
+        <v>8750.68935599545</v>
       </c>
       <c r="D32">
-        <v>-0.6126271673057704</v>
+        <v>-1.061220647578362</v>
       </c>
       <c r="E32">
-        <v>-0.5349445239522687</v>
+        <v>0.0598610576373699</v>
       </c>
       <c r="F32">
-        <v>-0.7886088947684208</v>
+        <v>-0.9890027869394242</v>
       </c>
       <c r="G32">
-        <v>484.1174284885466</v>
+        <v>8920.618082147239</v>
       </c>
       <c r="H32">
-        <v>670.57671548301</v>
+        <v>11086.50925038302</v>
       </c>
       <c r="I32">
-        <v>-0.95833125</v>
+        <v>4.651539121896568</v>
       </c>
       <c r="J32">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="33" spans="2:10">
       <c r="B33">
-        <v>799.2959373242261</v>
+        <v>11149.14979086937</v>
       </c>
       <c r="C33">
-        <v>605.1275197162443</v>
+        <v>8898.089993511274</v>
       </c>
       <c r="D33">
-        <v>-0.6223725087608375</v>
+        <v>-1.064770842592866</v>
       </c>
       <c r="E33">
-        <v>-0.5678766702571311</v>
+        <v>0.1667295411724768</v>
       </c>
       <c r="F33">
-        <v>-0.8315899996840457</v>
+        <v>-0.9931395139352328</v>
       </c>
       <c r="G33">
-        <v>491.1912236853503</v>
+        <v>8913.105385896581</v>
       </c>
       <c r="H33">
-        <v>660.5086096042297</v>
+        <v>10963.19883168929</v>
       </c>
       <c r="I33">
-        <v>-0.99739375</v>
+        <v>4.584941244538077</v>
       </c>
       <c r="J33">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="34" spans="2:10">
       <c r="B34">
-        <v>738.0692836123635</v>
+        <v>11142.89776106977</v>
       </c>
       <c r="C34">
-        <v>570.6598545338027</v>
+        <v>9275.199847269963</v>
       </c>
       <c r="D34">
-        <v>-0.6341798937435523</v>
+        <v>-1.069069792029583</v>
       </c>
       <c r="E34">
-        <v>-0.513367154424928</v>
+        <v>0.1890938878771066</v>
       </c>
       <c r="F34">
-        <v>-0.8332703332305673</v>
+        <v>-0.9936756960186328</v>
       </c>
       <c r="G34">
-        <v>497.8664373150541</v>
+        <v>8897.40320102017</v>
       </c>
       <c r="H34">
-        <v>650.1719342455627</v>
+        <v>10840.66172974263</v>
       </c>
       <c r="I34">
-        <v>-1.03645625</v>
+        <v>4.518343367179587</v>
       </c>
       <c r="J34">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="35" spans="2:10">
       <c r="B35">
-        <v>725.1013567967335</v>
+        <v>11356.12285114019</v>
       </c>
       <c r="C35">
-        <v>558.6061119459957</v>
+        <v>9199.117331326514</v>
       </c>
       <c r="D35">
-        <v>-0.6256324926836417</v>
+        <v>-1.058057362559769</v>
       </c>
       <c r="E35">
-        <v>-0.5030733186398685</v>
+        <v>0.2148263700873488</v>
       </c>
       <c r="F35">
-        <v>-0.9114941579105321</v>
+        <v>-0.9536843518742344</v>
       </c>
       <c r="G35">
-        <v>504.1328851050816</v>
+        <v>8873.581145324761</v>
       </c>
       <c r="H35">
-        <v>639.5824599164227</v>
+        <v>10719.44122971964</v>
       </c>
       <c r="I35">
-        <v>-1.07551875</v>
+        <v>4.451745489821096</v>
       </c>
       <c r="J35">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="36" spans="2:10">
       <c r="B36">
-        <v>719.0418043512548</v>
+        <v>11120.68028470781</v>
       </c>
       <c r="C36">
-        <v>582.3201982915391</v>
+        <v>9279.678997938352</v>
       </c>
       <c r="D36">
-        <v>-0.6294540963705342</v>
+        <v>-1.068670793882592</v>
       </c>
       <c r="E36">
-        <v>-0.4105034596191634</v>
+        <v>0.3013520027095798</v>
       </c>
       <c r="F36">
-        <v>-0.8998292451498305</v>
+        <v>-0.9763745632873669</v>
       </c>
       <c r="G36">
-        <v>509.9810064307221</v>
+        <v>8841.744837186579</v>
       </c>
       <c r="H36">
-        <v>628.7563428177929</v>
+        <v>10600.07477946032</v>
       </c>
       <c r="I36">
-        <v>-1.11458125</v>
+        <v>4.385147612462606</v>
       </c>
       <c r="J36">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="37" spans="2:10">
       <c r="B37">
-        <v>678.5715487830628</v>
+        <v>11391.54640497033</v>
       </c>
       <c r="C37">
-        <v>539.0141059785045</v>
+        <v>9309.85392975283</v>
       </c>
       <c r="D37">
-        <v>-0.615885897430707</v>
+        <v>-1.061618983062858</v>
       </c>
       <c r="E37">
-        <v>-0.3966019241417976</v>
+        <v>0.4106938171633798</v>
       </c>
       <c r="F37">
-        <v>-0.9101168100548619</v>
+        <v>-0.9318475280643658</v>
       </c>
       <c r="G37">
-        <v>515.4018789016305</v>
+        <v>8802.035427277662</v>
       </c>
       <c r="H37">
-        <v>617.7101001929542</v>
+        <v>10483.09160661882</v>
       </c>
       <c r="I37">
-        <v>-1.15364375</v>
+        <v>4.318549735104115</v>
       </c>
       <c r="J37">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="38" spans="2:10">
       <c r="B38">
-        <v>677.2642884576165</v>
+        <v>11605.04368413005</v>
       </c>
       <c r="C38">
-        <v>565.6465380723547</v>
+        <v>9801.074099448526</v>
       </c>
       <c r="D38">
-        <v>-0.6227335446311277</v>
+        <v>-1.07132962469434</v>
       </c>
       <c r="E38">
-        <v>-0.383643313590256</v>
+        <v>0.4408083630765329</v>
       </c>
       <c r="F38">
-        <v>-0.9257395884164976</v>
+        <v>-0.881766240105456</v>
       </c>
       <c r="G38">
-        <v>520.3872319745844</v>
+        <v>8754.628972754837</v>
       </c>
       <c r="H38">
-        <v>606.4605851273772</v>
+        <v>10369.01037225947</v>
       </c>
       <c r="I38">
-        <v>-1.19270625</v>
+        <v>4.251951857745625</v>
       </c>
       <c r="J38">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="39" spans="2:10">
       <c r="B39">
-        <v>630.8404910883618</v>
+        <v>11760.62466272628</v>
       </c>
       <c r="C39">
-        <v>568.2625125892179</v>
+        <v>10281.60835077788</v>
       </c>
       <c r="D39">
-        <v>-0.6311490440722602</v>
+        <v>-1.070729633171837</v>
       </c>
       <c r="E39">
-        <v>-0.3202432133071973</v>
+        <v>0.4906131445333339</v>
       </c>
       <c r="F39">
-        <v>-0.9528533049092358</v>
+        <v>-0.8550353264452005</v>
       </c>
       <c r="G39">
-        <v>524.9294595717262</v>
+        <v>8699.735656685991</v>
       </c>
       <c r="H39">
-        <v>595.0249608362236</v>
+        <v>10258.33687130127</v>
       </c>
       <c r="I39">
-        <v>-1.23176875</v>
+        <v>4.185353980387134</v>
       </c>
       <c r="J39">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="40" spans="2:10">
       <c r="B40">
-        <v>641.2309227890094</v>
+        <v>12351.86736178267</v>
       </c>
       <c r="C40">
-        <v>569.5452019188072</v>
+        <v>10638.41131687759</v>
       </c>
       <c r="D40">
-        <v>-0.6315116996055358</v>
+        <v>-1.060805871696988</v>
       </c>
       <c r="E40">
-        <v>-0.2767171608255833</v>
+        <v>0.5645745174133405</v>
       </c>
       <c r="F40">
-        <v>-0.9472615264857674</v>
+        <v>-0.790734315068248</v>
       </c>
       <c r="G40">
-        <v>529.0216316850413</v>
+        <v>8637.598856174389</v>
       </c>
       <c r="H40">
-        <v>583.4206744786891</v>
+        <v>10151.56179000624</v>
       </c>
       <c r="I40">
-        <v>-1.27083125</v>
+        <v>4.118756103028644</v>
       </c>
       <c r="J40">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="41" spans="2:10">
       <c r="B41">
-        <v>584.0360480269967</v>
+        <v>12782.97014104435</v>
       </c>
       <c r="C41">
-        <v>562.0140302899302</v>
+        <v>10347.62772089706</v>
       </c>
       <c r="D41">
-        <v>-0.6222035587989226</v>
+        <v>-1.063527482813305</v>
       </c>
       <c r="E41">
-        <v>-0.2465868431141576</v>
+        <v>0.6037237177406162</v>
       </c>
       <c r="F41">
-        <v>-0.9784707457596314</v>
+        <v>-0.7969251777011983</v>
       </c>
       <c r="G41">
-        <v>532.6575049493666</v>
+        <v>8568.49406331265</v>
       </c>
       <c r="H41">
-        <v>571.6654305391351</v>
+        <v>10049.15853045403</v>
       </c>
       <c r="I41">
-        <v>-1.30989375</v>
+        <v>4.052158225670153</v>
       </c>
       <c r="J41">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="42" spans="2:10">
       <c r="B42">
-        <v>577.8481454654185</v>
+        <v>12857.19502007033</v>
       </c>
       <c r="C42">
-        <v>526.0800875262869</v>
+        <v>11548.87198663882</v>
       </c>
       <c r="D42">
-        <v>-0.6292751995872616</v>
+        <v>-1.070410833659165</v>
       </c>
       <c r="E42">
-        <v>-0.23691480193497</v>
+        <v>0.6445688264612932</v>
       </c>
       <c r="F42">
-        <v>-0.9859052714250843</v>
+        <v>-0.7553549091589277</v>
       </c>
       <c r="G42">
-        <v>535.8315321677989</v>
+        <v>8492.727663750484</v>
       </c>
       <c r="H42">
-        <v>559.7771638156254</v>
+        <v>9951.581111648426</v>
       </c>
       <c r="I42">
-        <v>-1.34895625</v>
+        <v>3.985560348311663</v>
       </c>
       <c r="J42">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="43" spans="2:10">
       <c r="B43">
-        <v>561.3224363199646</v>
+        <v>11736.93538348204</v>
       </c>
       <c r="C43">
-        <v>571.6276653438733</v>
+        <v>12056.81321301303</v>
       </c>
       <c r="D43">
-        <v>-0.6286328995068715</v>
+        <v>-1.072096709221244</v>
       </c>
       <c r="E43">
-        <v>-0.1752248886163685</v>
+        <v>0.7305554330913082</v>
       </c>
       <c r="F43">
-        <v>-0.9884779820016121</v>
+        <v>-0.7000049803861119</v>
       </c>
       <c r="G43">
-        <v>538.5388707749685</v>
+        <v>8410.635578291565</v>
       </c>
       <c r="H43">
-        <v>547.7740120570753</v>
+        <v>9859.262156561268</v>
       </c>
       <c r="I43">
-        <v>-1.38801875</v>
+        <v>3.918962470953172</v>
       </c>
       <c r="J43">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="44" spans="2:10">
       <c r="B44">
-        <v>526.6558383257592</v>
+        <v>10935.51908489521</v>
       </c>
       <c r="C44">
-        <v>577.8787473250849</v>
+        <v>12524.19866552446</v>
       </c>
       <c r="D44">
-        <v>-0.5710279418885381</v>
+        <v>-0.9729266115442836</v>
       </c>
       <c r="E44">
-        <v>-0.1801365815038452</v>
+        <v>0.7910654035069341</v>
       </c>
       <c r="F44">
-        <v>-1.012265582924785</v>
+        <v>-0.6788049184793867</v>
       </c>
       <c r="G44">
-        <v>540.5890136044105</v>
+        <v>8329.919590604673</v>
       </c>
       <c r="H44">
-        <v>536.6825986046216</v>
+        <v>9779.83190591566</v>
       </c>
       <c r="I44">
-        <v>-1.423826041666667</v>
+        <v>3.857914416707889</v>
       </c>
       <c r="J44">
-        <v>-0.5729166666666666</v>
+        <v>-0.9767688679245283</v>
       </c>
     </row>
     <row r="45" spans="2:10">
       <c r="B45">
-        <v>552.7209206634346</v>
+        <v>10323.22852170555</v>
       </c>
       <c r="C45">
-        <v>518.9728888350567</v>
+        <v>13042.07177442854</v>
       </c>
       <c r="D45">
-        <v>-0.5236470856539783</v>
+        <v>-0.8835118294572137</v>
       </c>
       <c r="E45">
-        <v>-0.1181865373779471</v>
+        <v>0.7987891089127774</v>
       </c>
       <c r="F45">
-        <v>-1.024898761389832</v>
+        <v>-0.6475470636538412</v>
       </c>
       <c r="G45">
-        <v>542.090613649296</v>
+        <v>8252.272612016724</v>
       </c>
       <c r="H45">
-        <v>526.5392367019293</v>
+        <v>9712.233915136363</v>
       </c>
       <c r="I45">
-        <v>-1.456378125</v>
+        <v>3.802416185575814</v>
       </c>
       <c r="J45">
-        <v>-0.5208333333333334</v>
+        <v>-0.8879716981132075</v>
       </c>
     </row>
     <row r="46" spans="2:10">
       <c r="B46">
-        <v>521.5215907616579</v>
+        <v>10130.86581822756</v>
       </c>
       <c r="C46">
-        <v>540.1787961879819</v>
+        <v>12792.00860712121</v>
       </c>
       <c r="D46">
-        <v>-0.4628236006303227</v>
+        <v>-0.7913543974563898</v>
       </c>
       <c r="E46">
-        <v>-0.09750632173123702</v>
+        <v>0.7907848419251651</v>
       </c>
       <c r="F46">
-        <v>-0.992935478032164</v>
+        <v>-0.5844420466490684</v>
       </c>
       <c r="G46">
-        <v>543.1442214075953</v>
+        <v>8179.123245217958</v>
       </c>
       <c r="H46">
-        <v>517.3710628743604</v>
+        <v>9655.365744193909</v>
       </c>
       <c r="I46">
-        <v>-1.485675</v>
+        <v>3.752467777556946</v>
       </c>
       <c r="J46">
-        <v>-0.46875</v>
+        <v>-0.7991745283018868</v>
       </c>
     </row>
     <row r="47" spans="2:10">
       <c r="B47">
-        <v>485.5515237306993</v>
+        <v>9468.737976958417</v>
       </c>
       <c r="C47">
-        <v>579.3915100801262</v>
+        <v>12610.67971363104</v>
       </c>
       <c r="D47">
-        <v>-0.4124386867002622</v>
+        <v>-0.7112208170540053</v>
       </c>
       <c r="E47">
-        <v>-0.04653451986172805</v>
+        <v>0.8342082924088399</v>
       </c>
       <c r="F47">
-        <v>-1.016564392569492</v>
+        <v>-0.5383226700802458</v>
       </c>
       <c r="G47">
-        <v>543.8416393723616</v>
+        <v>8111.658861821413</v>
       </c>
       <c r="H47">
-        <v>509.1976383810378</v>
+        <v>9608.125680441681</v>
       </c>
       <c r="I47">
-        <v>-1.511716666666667</v>
+        <v>3.708069192651285</v>
       </c>
       <c r="J47">
-        <v>-0.4166666666666667</v>
+        <v>-0.710377358490566</v>
       </c>
     </row>
     <row r="48" spans="2:10">
       <c r="B48">
-        <v>486.3311713298737</v>
+        <v>9270.266073997507</v>
       </c>
       <c r="C48">
-        <v>562.1232265091987</v>
+        <v>12083.80620882474</v>
       </c>
       <c r="D48">
-        <v>-0.3651045621461609</v>
+        <v>-0.6120262449928848</v>
       </c>
       <c r="E48">
-        <v>-0.01936785607682779</v>
+        <v>0.8768787003577252</v>
       </c>
       <c r="F48">
-        <v>-0.9912158322198943</v>
+        <v>-0.4847833505840349</v>
       </c>
       <c r="G48">
-        <v>544.2654508335986</v>
+        <v>8050.851083987933</v>
       </c>
       <c r="H48">
-        <v>502.0324269673124</v>
+        <v>9569.451405281578</v>
       </c>
       <c r="I48">
-        <v>-1.534503125</v>
+        <v>3.669220430858832</v>
       </c>
       <c r="J48">
-        <v>-0.3645833333333333</v>
+        <v>-0.6215801886792452</v>
       </c>
     </row>
     <row r="49" spans="2:10">
       <c r="B49">
-        <v>484.9333962011685</v>
+        <v>8847.427620916031</v>
       </c>
       <c r="C49">
-        <v>582.9019803144012</v>
+        <v>11988.37443125255</v>
       </c>
       <c r="D49">
-        <v>-0.3148475254020464</v>
+        <v>-0.5365183563590707</v>
       </c>
       <c r="E49">
-        <v>-0.02602945237428556</v>
+        <v>0.8738152306292116</v>
       </c>
       <c r="F49">
-        <v>-0.996411185741006</v>
+        <v>-0.4859346880551029</v>
       </c>
       <c r="G49">
-        <v>544.4886900709731</v>
+        <v>7997.48196936066</v>
       </c>
       <c r="H49">
-        <v>495.8841346953835</v>
+        <v>9538.351363565436</v>
       </c>
       <c r="I49">
-        <v>-1.554034375</v>
+        <v>3.635921492179587</v>
       </c>
       <c r="J49">
-        <v>-0.3125</v>
+        <v>-0.5327830188679246</v>
       </c>
     </row>
     <row r="50" spans="2:10">
       <c r="B50">
-        <v>465.8123191198707</v>
+        <v>9126.094114453283</v>
       </c>
       <c r="C50">
-        <v>571.805674471241</v>
+        <v>12026.97684431589</v>
       </c>
       <c r="D50">
-        <v>-0.2625131706357947</v>
+        <v>-0.45558702385712</v>
       </c>
       <c r="E50">
-        <v>0.01265678663964165</v>
+        <v>0.8834198308374538</v>
       </c>
       <c r="F50">
-        <v>-1.010158132657946</v>
+        <v>-0.4430973769986841</v>
       </c>
       <c r="G50">
-        <v>544.5746237879442</v>
+        <v>7952.16952267792</v>
       </c>
       <c r="H50">
-        <v>490.7579017956573</v>
+        <v>9513.929701338373</v>
       </c>
       <c r="I50">
-        <v>-1.570310416666667</v>
+        <v>3.608172376613549</v>
       </c>
       <c r="J50">
-        <v>-0.2604166666666667</v>
+        <v>-0.4439858490566038</v>
       </c>
     </row>
     <row r="51" spans="2:10">
       <c r="B51">
-        <v>478.0515158937464</v>
+        <v>8747.764852678391</v>
       </c>
       <c r="C51">
-        <v>542.3003021492133</v>
+        <v>11885.92396904513</v>
       </c>
       <c r="D51">
-        <v>-0.2118715831620545</v>
+        <v>-0.3507517943960562</v>
       </c>
       <c r="E51">
-        <v>0.008175810907427434</v>
+        <v>0.9245373241920996</v>
       </c>
       <c r="F51">
-        <v>-0.9890612383864306</v>
+        <v>-0.4858877632154753</v>
       </c>
       <c r="G51">
-        <v>544.5766167786261</v>
+        <v>7915.391446864583</v>
       </c>
       <c r="H51">
-        <v>486.6563397798645</v>
+        <v>9495.405668244413</v>
       </c>
       <c r="I51">
-        <v>4.699854057179586</v>
+        <v>3.585973084160719</v>
       </c>
       <c r="J51">
-        <v>-0.2083333333333333</v>
+        <v>-0.355188679245283</v>
       </c>
     </row>
     <row r="52" spans="2:10">
       <c r="B52">
-        <v>476.7780085131662</v>
+        <v>8677.695695406583</v>
       </c>
       <c r="C52">
-        <v>518.6050450549269</v>
+        <v>11370.97065786374</v>
       </c>
       <c r="D52">
-        <v>-0.1564056087164419</v>
+        <v>-0.258967798245623</v>
       </c>
       <c r="E52">
-        <v>0.04860285168682366</v>
+        <v>0.90527360818342</v>
       </c>
       <c r="F52">
-        <v>-0.9966577571721847</v>
+        <v>-0.3917215492722809</v>
       </c>
       <c r="G52">
-        <v>544.5380582101737</v>
+        <v>7887.506296442232</v>
       </c>
       <c r="H52">
-        <v>483.5804095723761</v>
+        <v>9482.12835173715</v>
       </c>
       <c r="I52">
-        <v>4.690088432179586</v>
+        <v>3.569323614821097</v>
       </c>
       <c r="J52">
-        <v>-0.15625</v>
+        <v>-0.2663915094339623</v>
       </c>
     </row>
     <row r="53" spans="2:10">
       <c r="B53">
-        <v>486.526538259421</v>
+        <v>8432.039179996331</v>
       </c>
       <c r="C53">
-        <v>511.4315723362733</v>
+        <v>11459.97240150894</v>
       </c>
       <c r="D53">
-        <v>-0.1004244900106669</v>
+        <v>-0.1705286390910436</v>
       </c>
       <c r="E53">
-        <v>0.02847132959722854</v>
+        <v>0.9109929268785933</v>
       </c>
       <c r="F53">
-        <v>-1.027615751899057</v>
+        <v>-0.418813767156907</v>
       </c>
       <c r="G53">
-        <v>544.4923284546146</v>
+        <v>7868.771406026546</v>
       </c>
       <c r="H53">
-        <v>481.5301382428179</v>
+        <v>9473.587535221053</v>
       </c>
       <c r="I53">
-        <v>4.683578015512919</v>
+        <v>3.558223968594681</v>
       </c>
       <c r="J53">
-        <v>-0.1041666666666667</v>
+        <v>-0.1775943396226415</v>
       </c>
     </row>
     <row r="54" spans="2:10">
       <c r="B54">
-        <v>510.8855857851683</v>
+        <v>8290.968124785002</v>
       </c>
       <c r="C54">
-        <v>514.4558944352731</v>
+        <v>11252.36850877956</v>
       </c>
       <c r="D54">
-        <v>-0.05214267843280835</v>
+        <v>-0.09028791487164065</v>
       </c>
       <c r="E54">
-        <v>0.06462306573285172</v>
+        <v>0.910637606492976</v>
       </c>
       <c r="F54">
-        <v>-1.010393761572333</v>
+        <v>-0.3709668361688321</v>
       </c>
       <c r="G54">
-        <v>544.4627900482328</v>
+        <v>7859.357138809841</v>
       </c>
       <c r="H54">
-        <v>480.5051731622487</v>
+        <v>9469.421363214904</v>
       </c>
       <c r="I54">
-        <v>4.680322807179586</v>
+        <v>3.552674145481474</v>
       </c>
       <c r="J54">
-        <v>-0.05208333333333334</v>
+        <v>-0.08879716981132076</v>
       </c>
     </row>
     <row r="55" spans="2:10">
       <c r="B55">
-        <v>470.4280053806924</v>
+        <v>8376.133586535792</v>
       </c>
       <c r="C55">
-        <v>544.6001939377384</v>
+        <v>11774.79918194557</v>
       </c>
       <c r="D55">
-        <v>-0.0007387207901323185</v>
+        <v>0.001933473552840264</v>
       </c>
       <c r="E55">
-        <v>0.04951341443520874</v>
+        <v>0.91016209849831</v>
       </c>
       <c r="F55">
-        <v>-0.9870348895729772</v>
+        <v>-0.3731092769037946</v>
       </c>
       <c r="G55">
-        <v>544.4627900482328</v>
+        <v>7859.357138809841</v>
       </c>
       <c r="H55">
-        <v>480.5051731622487</v>
+        <v>9469.421363214904</v>
       </c>
       <c r="I55">
-        <v>4.680322807179586</v>
+        <v>3.552674145481474</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -1975,1536 +1975,1536 @@
     </row>
     <row r="56" spans="2:10">
       <c r="B56">
-        <v>487.6289944941367</v>
+        <v>8192.071913008236</v>
       </c>
       <c r="C56">
-        <v>545.8395877770336</v>
+        <v>11592.72447492277</v>
       </c>
       <c r="D56">
-        <v>-0.09459368473407043</v>
+        <v>-0.1806994646940344</v>
       </c>
       <c r="E56">
-        <v>0.04341111001809671</v>
+        <v>0.9100105053096154</v>
       </c>
       <c r="F56">
-        <v>-1.012206107463703</v>
+        <v>-0.4217713797300956</v>
       </c>
       <c r="G56">
-        <v>544.4346117177805</v>
+        <v>7851.26807283798</v>
       </c>
       <c r="H56">
-        <v>479.6267187365771</v>
+        <v>9465.895196989279</v>
       </c>
       <c r="I56">
-        <v>4.673812390512919</v>
+        <v>3.541574499255058</v>
       </c>
       <c r="J56">
-        <v>-0.1041666666666667</v>
+        <v>-0.1775943396226415</v>
       </c>
     </row>
     <row r="57" spans="2:10">
       <c r="B57">
-        <v>494.9350417532936</v>
+        <v>8268.95100889284</v>
       </c>
       <c r="C57">
-        <v>599.6335350444465</v>
+        <v>11232.20730015115</v>
       </c>
       <c r="D57">
-        <v>-0.2049567423828942</v>
+        <v>-0.3525659675997729</v>
       </c>
       <c r="E57">
-        <v>0.03688072371386233</v>
+        <v>0.9257464605224787</v>
       </c>
       <c r="F57">
-        <v>-1.004352583186057</v>
+        <v>-0.3807880841681885</v>
       </c>
       <c r="G57">
-        <v>544.3668181233597</v>
+        <v>7835.012660686371</v>
       </c>
       <c r="H57">
-        <v>477.8702140216071</v>
+        <v>9459.022866818752</v>
       </c>
       <c r="I57">
-        <v>4.660791557179586</v>
+        <v>3.519375206802228</v>
       </c>
       <c r="J57">
-        <v>-0.2083333333333333</v>
+        <v>-0.355188679245283</v>
       </c>
     </row>
     <row r="58" spans="2:10">
       <c r="B58">
-        <v>488.2128573264317</v>
+        <v>8484.053485428873</v>
       </c>
       <c r="C58">
-        <v>574.5801956282226</v>
+        <v>11203.8073377805</v>
       </c>
       <c r="D58">
-        <v>-0.3125798025185936</v>
+        <v>-0.5358887474677428</v>
       </c>
       <c r="E58">
-        <v>0.07451161247810781</v>
+        <v>0.9142448932380927</v>
       </c>
       <c r="F58">
-        <v>-1.024992342266375</v>
+        <v>-0.3239533269395513</v>
       </c>
       <c r="G58">
-        <v>544.2308305886914</v>
+        <v>7810.406727811657</v>
       </c>
       <c r="H58">
-        <v>475.2370043533474</v>
+        <v>9449.25815503111</v>
       </c>
       <c r="I58">
-        <v>4.641260307179586</v>
+        <v>3.486076268122983</v>
       </c>
       <c r="J58">
-        <v>-0.3125</v>
+        <v>-0.5327830188679246</v>
       </c>
     </row>
     <row r="59" spans="2:10">
       <c r="B59">
-        <v>487.2258864479529</v>
+        <v>8134.984209797772</v>
       </c>
       <c r="C59">
-        <v>518.5983890505751</v>
+        <v>11066.28494191533</v>
       </c>
       <c r="D59">
-        <v>-0.4171013047602745</v>
+        <v>-0.7047488043816288</v>
       </c>
       <c r="E59">
-        <v>0.06675247448863672</v>
+        <v>0.979784672949723</v>
       </c>
       <c r="F59">
-        <v>-0.9629983975946532</v>
+        <v>-0.3211429761841031</v>
       </c>
       <c r="G59">
-        <v>543.9809796493568</v>
+        <v>7777.183545383514</v>
       </c>
       <c r="H59">
-        <v>471.7302688844621</v>
+        <v>9437.338023567409</v>
       </c>
       <c r="I59">
-        <v>4.615218640512919</v>
+        <v>3.441677683217323</v>
       </c>
       <c r="J59">
-        <v>-0.4166666666666667</v>
+        <v>-0.710377358490566</v>
       </c>
     </row>
     <row r="60" spans="2:10">
       <c r="B60">
-        <v>454.478607300986</v>
+        <v>8184.382757078153</v>
       </c>
       <c r="C60">
-        <v>548.3671550874633</v>
+        <v>11005.14208635372</v>
       </c>
       <c r="D60">
-        <v>-0.5281944428099036</v>
+        <v>-0.886438286969252</v>
       </c>
       <c r="E60">
-        <v>0.1309779537159988</v>
+        <v>0.9989817532521239</v>
       </c>
       <c r="F60">
-        <v>-0.9790023543663564</v>
+        <v>-0.2067120310797443</v>
       </c>
       <c r="G60">
-        <v>543.5546332265163</v>
+        <v>7735.034163410038</v>
       </c>
       <c r="H60">
-        <v>467.3564680619557</v>
+        <v>9424.295764830891</v>
       </c>
       <c r="I60">
-        <v>4.582666557179586</v>
+        <v>3.386179452085247</v>
       </c>
       <c r="J60">
-        <v>-0.5208333333333334</v>
+        <v>-0.8879716981132075</v>
       </c>
     </row>
     <row r="61" spans="2:10">
       <c r="B61">
-        <v>469.5446302496348</v>
+        <v>7172.316078751949</v>
       </c>
       <c r="C61">
-        <v>568.4584712137852</v>
+        <v>10624.48143773868</v>
       </c>
       <c r="D61">
-        <v>-0.6192459508381808</v>
+        <v>-1.061130014133289</v>
       </c>
       <c r="E61">
-        <v>0.2034338653321047</v>
+        <v>0.9825630546649049</v>
       </c>
       <c r="F61">
-        <v>-0.970453228713849</v>
+        <v>-0.1626668022499093</v>
       </c>
       <c r="G61">
-        <v>542.872467136178</v>
+        <v>7683.66463753165</v>
       </c>
       <c r="H61">
-        <v>462.1273388331454</v>
+        <v>9411.474769286386</v>
       </c>
       <c r="I61">
-        <v>4.543604057179586</v>
+        <v>3.319581574726757</v>
       </c>
       <c r="J61">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="62" spans="2:10">
       <c r="B62">
-        <v>438.4527512247438</v>
+        <v>7933.28874920632</v>
       </c>
       <c r="C62">
-        <v>563.5855971324745</v>
+        <v>10610.13582004741</v>
       </c>
       <c r="D62">
-        <v>-0.731061234207712</v>
+        <v>-1.242955257420274</v>
       </c>
       <c r="E62">
-        <v>0.2135064933453921</v>
+        <v>0.9858717108505666</v>
       </c>
       <c r="F62">
-        <v>-0.9707430541051881</v>
+        <v>-0.09957549734767895</v>
       </c>
       <c r="G62">
-        <v>541.8389677428861</v>
+        <v>7622.87095705115</v>
       </c>
       <c r="H62">
-        <v>456.0624222943767</v>
+        <v>9400.538435143737</v>
       </c>
       <c r="I62">
-        <v>4.498031140512919</v>
+        <v>3.241884051141851</v>
       </c>
       <c r="J62">
-        <v>-0.7291666666666666</v>
+        <v>-1.24316037735849</v>
       </c>
     </row>
     <row r="63" spans="2:10">
       <c r="B63">
-        <v>469.8975334189863</v>
+        <v>7532.939179879109</v>
       </c>
       <c r="C63">
-        <v>596.0709869048567</v>
+        <v>10670.54459254555</v>
       </c>
       <c r="D63">
-        <v>-0.8249948935173399</v>
+        <v>-1.41311758241048</v>
       </c>
       <c r="E63">
-        <v>0.2523730862204538</v>
+        <v>1.00695579279192</v>
       </c>
       <c r="F63">
-        <v>-0.9652759527944622</v>
+        <v>-0.01073173097207447</v>
       </c>
       <c r="G63">
-        <v>540.3432801791245</v>
+        <v>7552.631938398533</v>
       </c>
       <c r="H63">
-        <v>449.1920951352009</v>
+        <v>9393.470352109436</v>
       </c>
       <c r="I63">
-        <v>4.445947807179586</v>
+        <v>3.15308688133053</v>
       </c>
       <c r="J63">
-        <v>-0.8333333333333334</v>
+        <v>-1.420754716981132</v>
       </c>
     </row>
     <row r="64" spans="2:10">
       <c r="B64">
-        <v>487.1061740126154</v>
+        <v>7248.613077124515</v>
       </c>
       <c r="C64">
-        <v>586.9511334518644</v>
+        <v>10909.69068792447</v>
       </c>
       <c r="D64">
-        <v>-0.9444236770190667</v>
+        <v>-1.606661502539443</v>
       </c>
       <c r="E64">
-        <v>0.3058032399144939</v>
+        <v>0.997078982779022</v>
       </c>
       <c r="F64">
-        <v>-0.9632144812484114</v>
+        <v>0.06132401633053164</v>
       </c>
       <c r="G64">
-        <v>538.2605371369779</v>
+        <v>7473.219215833437</v>
       </c>
       <c r="H64">
-        <v>441.5610563251959</v>
+        <v>9392.557523990286</v>
       </c>
       <c r="I64">
-        <v>4.387354057179586</v>
+        <v>3.053190065292795</v>
       </c>
       <c r="J64">
-        <v>-0.9375</v>
+        <v>-1.598349056603774</v>
       </c>
     </row>
     <row r="65" spans="2:10">
       <c r="B65">
-        <v>505.7937046468136</v>
+        <v>7134.449000515512</v>
       </c>
       <c r="C65">
-        <v>556.8242466031269</v>
+        <v>11091.66397608278</v>
       </c>
       <c r="D65">
-        <v>-1.039494225488548</v>
+        <v>-1.773826460324995</v>
       </c>
       <c r="E65">
-        <v>0.3369840818235012</v>
+        <v>0.9552641851253901</v>
       </c>
       <c r="F65">
-        <v>-0.8971130589401158</v>
+        <v>0.2059010462202097</v>
       </c>
       <c r="G65">
-        <v>535.4538213889635</v>
+        <v>7385.321610960745</v>
       </c>
       <c r="H65">
-        <v>433.2321928769963</v>
+        <v>9400.348205117702</v>
       </c>
       <c r="I65">
-        <v>4.322249890512919</v>
+        <v>2.942193603028644</v>
       </c>
       <c r="J65">
-        <v>-1.041666666666667</v>
+        <v>-1.775943396226415</v>
       </c>
     </row>
     <row r="66" spans="2:10">
       <c r="B66">
-        <v>467.5435096220755</v>
+        <v>7478.337047333683</v>
       </c>
       <c r="C66">
-        <v>591.7217379988939</v>
+        <v>11328.81755004172</v>
       </c>
       <c r="D66">
-        <v>-1.148359791358913</v>
+        <v>-1.954464216458098</v>
       </c>
       <c r="E66">
-        <v>0.4638659217599044</v>
+        <v>0.9402483869732277</v>
       </c>
       <c r="F66">
-        <v>-0.8786827428104136</v>
+        <v>0.3177467438649801</v>
       </c>
       <c r="G66">
-        <v>531.7769279674943</v>
+        <v>7290.178498762695</v>
       </c>
       <c r="H66">
-        <v>424.2907123218459</v>
+        <v>9419.575150365437</v>
       </c>
       <c r="I66">
-        <v>4.250635307179586</v>
+        <v>2.820097494538078</v>
       </c>
       <c r="J66">
-        <v>-1.145833333333333</v>
+        <v>-1.953537735849057</v>
       </c>
     </row>
     <row r="67" spans="2:10">
       <c r="B67">
-        <v>495.0423336659226</v>
+        <v>8014.774515356234</v>
       </c>
       <c r="C67">
-        <v>581.1713100759534</v>
+        <v>11684.40322864801</v>
       </c>
       <c r="D67">
-        <v>-1.245446002773492</v>
+        <v>-2.124662222102529</v>
       </c>
       <c r="E67">
-        <v>0.5196165346646104</v>
+        <v>0.8553832028684745</v>
       </c>
       <c r="F67">
-        <v>-0.8922608030471957</v>
+        <v>0.4616741974927311</v>
       </c>
       <c r="G67">
-        <v>527.078096802413</v>
+        <v>7189.713282626321</v>
       </c>
       <c r="H67">
-        <v>414.8483843277712</v>
+        <v>9453.035048894306</v>
       </c>
       <c r="I67">
-        <v>4.172510307179586</v>
+        <v>2.686901739821097</v>
       </c>
       <c r="J67">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="68" spans="2:10">
       <c r="B68">
-        <v>510.0089472891873</v>
+        <v>8811.026299320889</v>
       </c>
       <c r="C68">
-        <v>662.3076889127053</v>
+        <v>12523.0930217794</v>
       </c>
       <c r="D68">
-        <v>-1.256528895358866</v>
+        <v>-2.130972937005125</v>
       </c>
       <c r="E68">
-        <v>0.5568418286827664</v>
+        <v>0.8241134789420637</v>
       </c>
       <c r="F68">
-        <v>-0.8307735704067662</v>
+        <v>0.570550259198453</v>
       </c>
       <c r="G68">
-        <v>521.6566663452847</v>
+        <v>7094.581482174125</v>
       </c>
       <c r="H68">
-        <v>405.8015802476473</v>
+        <v>9499.54058625938</v>
       </c>
       <c r="I68">
-        <v>4.094385307179586</v>
+        <v>2.553705985104116</v>
       </c>
       <c r="J68">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="69" spans="2:10">
       <c r="B69">
-        <v>523.9569251189801</v>
+        <v>9455.813321160595</v>
       </c>
       <c r="C69">
-        <v>700.9601230148108</v>
+        <v>13864.31712297593</v>
       </c>
       <c r="D69">
-        <v>-1.239456191635415</v>
+        <v>-2.127928123259883</v>
       </c>
       <c r="E69">
-        <v>0.6450608724273532</v>
+        <v>0.7405216263811231</v>
       </c>
       <c r="F69">
-        <v>-0.7939891726780323</v>
+        <v>0.6861782229354976</v>
       </c>
       <c r="G69">
-        <v>515.545709554703</v>
+        <v>7006.468347325839</v>
       </c>
       <c r="H69">
-        <v>397.2054893122705</v>
+        <v>9558.267921718249</v>
       </c>
       <c r="I69">
-        <v>4.016260307179586</v>
+        <v>2.420510230387134</v>
       </c>
       <c r="J69">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="70" spans="2:10">
       <c r="B70">
-        <v>542.3356558880527</v>
+        <v>10488.41299026876</v>
       </c>
       <c r="C70">
-        <v>700.7748308378204</v>
+        <v>15737.48409724145</v>
       </c>
       <c r="D70">
-        <v>-1.25884664205904</v>
+        <v>-2.128256455836977</v>
       </c>
       <c r="E70">
-        <v>0.6974355319955101</v>
+        <v>0.62538645305818</v>
       </c>
       <c r="F70">
-        <v>-0.7186736129252036</v>
+        <v>0.7813218076976859</v>
       </c>
       <c r="G70">
-        <v>508.7825057838751</v>
+        <v>6926.934793072291</v>
       </c>
       <c r="H70">
-        <v>389.112551216629</v>
+        <v>9628.176706650391</v>
       </c>
       <c r="I70">
-        <v>3.938135307179586</v>
+        <v>2.287314475670153</v>
       </c>
       <c r="J70">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="71" spans="2:10">
       <c r="B71">
-        <v>586.5339679304996</v>
+        <v>12083.03181519208</v>
       </c>
       <c r="C71">
-        <v>805.4805765504597</v>
+        <v>15786.90601831554</v>
       </c>
       <c r="D71">
-        <v>-1.251428235285804</v>
+        <v>-2.125243420659885</v>
       </c>
       <c r="E71">
-        <v>0.7436050988239851</v>
+        <v>0.5353861585579136</v>
       </c>
       <c r="F71">
-        <v>-0.6606501901791036</v>
+        <v>0.8320508328105454</v>
       </c>
       <c r="G71">
-        <v>501.4083133612149</v>
+        <v>6857.389748029196</v>
       </c>
       <c r="H71">
-        <v>381.5721362161661</v>
+        <v>9708.02851422445</v>
       </c>
       <c r="I71">
-        <v>3.860010307179586</v>
+        <v>2.154118720953172</v>
       </c>
       <c r="J71">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="72" spans="2:10">
       <c r="B72">
-        <v>608.919180002277</v>
+        <v>11614.29039311161</v>
       </c>
       <c r="C72">
-        <v>771.8343139502495</v>
+        <v>14527.37169520656</v>
       </c>
       <c r="D72">
-        <v>-1.250851573259113</v>
+        <v>-2.137099291462965</v>
       </c>
       <c r="E72">
-        <v>0.8019437418126051</v>
+        <v>0.412942123872994</v>
       </c>
       <c r="F72">
-        <v>-0.6110398853409159</v>
+        <v>0.8937733577403779</v>
       </c>
       <c r="G72">
-        <v>493.4681178975464</v>
+        <v>6799.065195413727</v>
       </c>
       <c r="H72">
-        <v>374.6302439478891</v>
+        <v>9796.408778000341</v>
       </c>
       <c r="I72">
-        <v>3.781885307179586</v>
+        <v>2.020922966236191</v>
       </c>
       <c r="J72">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="73" spans="2:10">
       <c r="B73">
-        <v>544.3520135590142</v>
+        <v>10880.97919917401</v>
       </c>
       <c r="C73">
-        <v>741.1419265062102</v>
+        <v>13917.96341574384</v>
       </c>
       <c r="D73">
-        <v>-1.24804630112584</v>
+        <v>-2.123405818887207</v>
       </c>
       <c r="E73">
-        <v>0.825493034678744</v>
+        <v>0.3083874321251181</v>
       </c>
       <c r="F73">
-        <v>-0.5501168110478701</v>
+        <v>0.9690997630277818</v>
       </c>
       <c r="G73">
-        <v>485.0103578553513</v>
+        <v>6752.994348590357</v>
       </c>
       <c r="H73">
-        <v>368.3292228136385</v>
+        <v>9891.751850826153</v>
       </c>
       <c r="I73">
-        <v>3.703760307179586</v>
+        <v>1.88772721151921</v>
       </c>
       <c r="J73">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="74" spans="2:10">
       <c r="B74">
-        <v>522.1505098924895</v>
+        <v>10131.43900104739</v>
       </c>
       <c r="C74">
-        <v>729.1271430356652</v>
+        <v>13520.19118946209</v>
       </c>
       <c r="D74">
-        <v>-1.240628964577894</v>
+        <v>-2.134105962285443</v>
       </c>
       <c r="E74">
-        <v>0.8904175360569557</v>
+        <v>0.1769372401409484</v>
       </c>
       <c r="F74">
-        <v>-0.4848382810122466</v>
+        <v>0.9655121534713316</v>
       </c>
       <c r="G74">
-        <v>476.0866290541981</v>
+        <v>6719.993347803903</v>
       </c>
       <c r="H74">
-        <v>362.7075116373958</v>
+        <v>9992.3687401141</v>
       </c>
       <c r="I74">
-        <v>3.625635307179586</v>
+        <v>1.754531456802229</v>
       </c>
       <c r="J74">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="75" spans="2:10">
       <c r="B75">
-        <v>501.6807498778664</v>
+        <v>9767.658572740978</v>
       </c>
       <c r="C75">
-        <v>716.1826541600468</v>
+        <v>13514.2696914148</v>
       </c>
       <c r="D75">
-        <v>-1.253593988695804</v>
+        <v>-2.13905887714286</v>
       </c>
       <c r="E75">
-        <v>0.9159613287284695</v>
+        <v>0.0623026162147249</v>
       </c>
       <c r="F75">
-        <v>-0.3854185581886652</v>
+        <v>1.017828233668514</v>
       </c>
       <c r="G75">
-        <v>466.7513699149929</v>
+        <v>6700.64680234024</v>
       </c>
       <c r="H75">
-        <v>357.7994051726263</v>
+        <v>10096.477028168</v>
       </c>
       <c r="I75">
-        <v>3.547510307179586</v>
+        <v>1.621335702085248</v>
       </c>
       <c r="J75">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="76" spans="2:10">
       <c r="B76">
-        <v>465.3789008981659</v>
+        <v>9662.083650660075</v>
       </c>
       <c r="C76">
-        <v>684.9504564748079</v>
+        <v>13119.82059519608</v>
       </c>
       <c r="D76">
-        <v>-1.248721856310911</v>
+        <v>-2.125818125740649</v>
       </c>
       <c r="E76">
-        <v>0.9449796315229884</v>
+        <v>-0.1124638202764581</v>
       </c>
       <c r="F76">
-        <v>-0.3486247410616327</v>
+        <v>0.9968042551796805</v>
       </c>
       <c r="G76">
-        <v>457.0615293631924</v>
+        <v>6695.297434233796</v>
       </c>
       <c r="H76">
-        <v>353.6348448901585</v>
+        <v>10202.23244752678</v>
       </c>
       <c r="I76">
-        <v>3.469385307179586</v>
+        <v>1.488139947368267</v>
       </c>
       <c r="J76">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="77" spans="2:10">
       <c r="B77">
-        <v>438.8088276080759</v>
+        <v>9820.427115837736</v>
       </c>
       <c r="C77">
-        <v>679.355804582316</v>
+        <v>13687.82719790624</v>
       </c>
       <c r="D77">
-        <v>-1.249650916088946</v>
+        <v>-2.129227637878157</v>
       </c>
       <c r="E77">
-        <v>0.9882436359172015</v>
+        <v>-0.2126510719111825</v>
       </c>
       <c r="F77">
-        <v>-0.258547099172301</v>
+        <v>1.009784873829945</v>
       </c>
       <c r="G77">
-        <v>447.0762194169034</v>
+        <v>6704.040006982466</v>
       </c>
       <c r="H77">
-        <v>350.2392363228813</v>
+        <v>10307.76155197017</v>
       </c>
       <c r="I77">
-        <v>3.391260307179586</v>
+        <v>1.354944192651286</v>
       </c>
       <c r="J77">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="78" spans="2:10">
       <c r="B78">
-        <v>440.9152404042352</v>
+        <v>10243.4044104578</v>
       </c>
       <c r="C78">
-        <v>630.1190453756925</v>
+        <v>14104.08198654847</v>
       </c>
       <c r="D78">
-        <v>-1.255942029656188</v>
+        <v>-2.135850099117167</v>
       </c>
       <c r="E78">
-        <v>0.9738874897215556</v>
+        <v>-0.3454419691159926</v>
       </c>
       <c r="F78">
-        <v>-0.1804857383297626</v>
+        <v>0.91722050578314</v>
       </c>
       <c r="G78">
-        <v>436.8563545792276</v>
+        <v>6726.719646822137</v>
       </c>
       <c r="H78">
-        <v>347.6332940815293</v>
+        <v>10411.19490442301</v>
       </c>
       <c r="I78">
-        <v>3.313135307179586</v>
+        <v>1.221748437934305</v>
       </c>
       <c r="J78">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="79" spans="2:10">
       <c r="B79">
-        <v>446.6989089114392</v>
+        <v>10952.87538599206</v>
       </c>
       <c r="C79">
-        <v>650.5013399987306</v>
+        <v>14791.38017829445</v>
       </c>
       <c r="D79">
-        <v>-1.24264156355795</v>
+        <v>-2.131939316385179</v>
       </c>
       <c r="E79">
-        <v>0.9714499641726583</v>
+        <v>-0.4838238648227627</v>
       </c>
       <c r="F79">
-        <v>-0.0921445659878343</v>
+        <v>0.8784385833067445</v>
       </c>
       <c r="G79">
-        <v>426.4642802347051</v>
+        <v>6762.93458629926</v>
       </c>
       <c r="H79">
-        <v>345.8329154870268</v>
+        <v>10510.70019383799</v>
       </c>
       <c r="I79">
-        <v>3.235010307179586</v>
+        <v>1.088552683217324</v>
       </c>
       <c r="J79">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="80" spans="2:10">
       <c r="B80">
-        <v>414.2032658880781</v>
+        <v>11682.25911648905</v>
       </c>
       <c r="C80">
-        <v>654.1190716430234</v>
+        <v>16055.3307824932</v>
       </c>
       <c r="D80">
-        <v>-1.244886637789398</v>
+        <v>-2.139556403205229</v>
       </c>
       <c r="E80">
-        <v>1.006357330559821</v>
+        <v>-0.5798655266497009</v>
       </c>
       <c r="F80">
-        <v>0.0009733941957248693</v>
+        <v>0.838673344651053</v>
       </c>
       <c r="G80">
-        <v>415.9633923167921</v>
+        <v>6812.043281539369</v>
       </c>
       <c r="H80">
-        <v>344.8490835902823</v>
+        <v>10604.5146943947</v>
       </c>
       <c r="I80">
-        <v>3.156885307179586</v>
+        <v>0.9553569285003425</v>
       </c>
       <c r="J80">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="81" spans="2:10">
       <c r="B81">
-        <v>433.8375972876876</v>
+        <v>12843.78695913641</v>
       </c>
       <c r="C81">
-        <v>652.9123805764543</v>
+        <v>15451.16039243129</v>
       </c>
       <c r="D81">
-        <v>-1.254571235608505</v>
+        <v>-2.140029644726903</v>
       </c>
       <c r="E81">
-        <v>0.9732006463344569</v>
+        <v>-0.6491604485362651</v>
       </c>
       <c r="F81">
-        <v>0.07688414018209026</v>
+        <v>0.7479091262619395</v>
       </c>
       <c r="G81">
-        <v>405.4177505665567</v>
+        <v>6873.175777129888</v>
       </c>
       <c r="H81">
-        <v>344.6878001710553</v>
+        <v>10690.97649200362</v>
       </c>
       <c r="I81">
-        <v>3.078760307179586</v>
+        <v>0.8221611737833614</v>
       </c>
       <c r="J81">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="82" spans="2:10">
       <c r="B82">
-        <v>405.0596113834862</v>
+        <v>14381.56737126954</v>
       </c>
       <c r="C82">
-        <v>726.9028526796584</v>
+        <v>13560.46644251965</v>
       </c>
       <c r="D82">
-        <v>-1.241717292706187</v>
+        <v>-2.13079797172903</v>
       </c>
       <c r="E82">
-        <v>1.029570829003282</v>
+        <v>-0.7775609679700771</v>
       </c>
       <c r="F82">
-        <v>0.1407409267378096</v>
+        <v>0.6716447997033561</v>
       </c>
       <c r="G82">
-        <v>394.8916877418764</v>
+        <v>6945.249117289502</v>
       </c>
       <c r="H82">
-        <v>345.3500491246272</v>
+        <v>10768.55392494083</v>
       </c>
       <c r="I82">
-        <v>3.000635307179586</v>
+        <v>0.6889654190663803</v>
       </c>
       <c r="J82">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="83" spans="2:10">
       <c r="B83">
-        <v>393.5334972207086</v>
+        <v>15406.30180802479</v>
       </c>
       <c r="C83">
-        <v>657.1362848477477</v>
+        <v>12829.35672612279</v>
       </c>
       <c r="D83">
-        <v>-1.248761260587213</v>
+        <v>-2.142162193112477</v>
       </c>
       <c r="E83">
-        <v>0.9871677828720468</v>
+        <v>-0.8784907961205943</v>
       </c>
       <c r="F83">
-        <v>0.2462461093518024</v>
+        <v>0.4963899914994977</v>
       </c>
       <c r="G83">
-        <v>384.4494171611189</v>
+        <v>7026.986530316828</v>
       </c>
       <c r="H83">
-        <v>346.8317904596354</v>
+        <v>10835.87271707565</v>
       </c>
       <c r="I83">
-        <v>2.922510307179586</v>
+        <v>0.5557696643493992</v>
       </c>
       <c r="J83">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="84" spans="2:10">
       <c r="B84">
-        <v>367.1818565871001</v>
+        <v>14273.09599292312</v>
       </c>
       <c r="C84">
-        <v>668.9229460285859</v>
+        <v>12242.88744935635</v>
       </c>
       <c r="D84">
-        <v>-1.250409429244808</v>
+        <v>-2.131934009761741</v>
       </c>
       <c r="E84">
-        <v>0.9437710917098986</v>
+        <v>-0.9115140452975387</v>
       </c>
       <c r="F84">
-        <v>0.3015265207981976</v>
+        <v>0.3989451481640329</v>
       </c>
       <c r="G84">
-        <v>374.1546409754546</v>
+        <v>7116.940046467907</v>
       </c>
       <c r="H84">
-        <v>349.1239849436843</v>
+        <v>10891.74032302891</v>
       </c>
       <c r="I84">
-        <v>2.844385307179586</v>
+        <v>0.4225739096324181</v>
       </c>
       <c r="J84">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="85" spans="2:10">
       <c r="B85">
-        <v>387.8281395197679</v>
+        <v>13284.08660683583</v>
       </c>
       <c r="C85">
-        <v>693.9047936709931</v>
+        <v>11618.8506047436</v>
       </c>
       <c r="D85">
-        <v>-1.254619957258919</v>
+        <v>-2.125362661601503</v>
       </c>
       <c r="E85">
-        <v>0.9006162970646403</v>
+        <v>-0.9769541597346902</v>
       </c>
       <c r="F85">
-        <v>0.3609358741348405</v>
+        <v>0.3149999901224894</v>
       </c>
       <c r="G85">
-        <v>364.0701615594984</v>
+        <v>7213.516148589143</v>
       </c>
       <c r="H85">
-        <v>352.2126492463854</v>
+        <v>10935.16705398991</v>
       </c>
       <c r="I85">
-        <v>2.766260307179586</v>
+        <v>0.2893781549154369</v>
       </c>
       <c r="J85">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="86" spans="2:10">
       <c r="B86">
-        <v>395.044180391911</v>
+        <v>12813.29550272312</v>
       </c>
       <c r="C86">
-        <v>748.7895606187428</v>
+        <v>11039.74636119332</v>
       </c>
       <c r="D86">
-        <v>-1.245708792894874</v>
+        <v>-2.132762025595511</v>
       </c>
       <c r="E86">
-        <v>0.8725424498800755</v>
+        <v>-1.000807961481139</v>
       </c>
       <c r="F86">
-        <v>0.4197356595910242</v>
+        <v>0.1264188543481033</v>
       </c>
       <c r="G86">
-        <v>354.2574983909597</v>
+        <v>7315.004001107425</v>
       </c>
       <c r="H86">
-        <v>356.0789412434324</v>
+        <v>10965.38360995048</v>
       </c>
       <c r="I86">
-        <v>2.688135307179586</v>
+        <v>0.1561824001984558</v>
       </c>
       <c r="J86">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="87" spans="2:10">
       <c r="B87">
-        <v>413.3128368680672</v>
+        <v>12775.7093964798</v>
       </c>
       <c r="C87">
-        <v>767.1762324556549</v>
+        <v>10929.93874217571</v>
       </c>
       <c r="D87">
-        <v>-1.251335448909496</v>
+        <v>-2.13563568885403</v>
       </c>
       <c r="E87">
-        <v>0.8696042037675743</v>
+        <v>-1.011593374985184</v>
       </c>
       <c r="F87">
-        <v>0.5098060996868028</v>
+        <v>0.002841272247189389</v>
       </c>
       <c r="G87">
-        <v>344.7765127564918</v>
+        <v>7419.605757303811</v>
       </c>
       <c r="H87">
-        <v>360.6992749613188</v>
+        <v>10981.85470777432</v>
       </c>
       <c r="I87">
-        <v>2.610010307179586</v>
+        <v>0.02298664548147467</v>
       </c>
       <c r="J87">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="88" spans="2:10">
       <c r="B88">
-        <v>439.8392941170492</v>
+        <v>12433.61633699344</v>
       </c>
       <c r="C88">
-        <v>764.3627875842865</v>
+        <v>10734.45694851553</v>
       </c>
       <c r="D88">
-        <v>-1.250011705254083</v>
+        <v>-2.128313721280458</v>
       </c>
       <c r="E88">
-        <v>0.8031570606351537</v>
+        <v>-0.990622843457223</v>
       </c>
       <c r="F88">
-        <v>0.5699427139167379</v>
+        <v>-0.1134700658803124</v>
       </c>
       <c r="G88">
-        <v>335.6850425731893</v>
+        <v>7525.468407980579</v>
       </c>
       <c r="H88">
-        <v>366.0454644614906</v>
+        <v>10984.28856368194</v>
       </c>
       <c r="I88">
-        <v>2.531885307179586</v>
+        <v>-0.1102091092355065</v>
       </c>
       <c r="J88">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="89" spans="2:10">
       <c r="B89">
-        <v>417.6338126479025</v>
+        <v>12920.82924985665</v>
       </c>
       <c r="C89">
-        <v>791.9502966549962</v>
+        <v>11407.20094535801</v>
       </c>
       <c r="D89">
-        <v>-1.25781609249068</v>
+        <v>-2.13590442462008</v>
       </c>
       <c r="E89">
-        <v>0.7673236708744655</v>
+        <v>-0.9914527206082123</v>
       </c>
       <c r="F89">
-        <v>0.6479514068640184</v>
+        <v>-0.2528313781432457</v>
       </c>
       <c r="G89">
-        <v>327.0385495534737</v>
+        <v>7630.716607325842</v>
       </c>
       <c r="H89">
-        <v>372.0848957861796</v>
+        <v>10972.64206216988</v>
       </c>
       <c r="I89">
-        <v>2.453760307179586</v>
+        <v>-0.2434048639524876</v>
       </c>
       <c r="J89">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="90" spans="2:10">
       <c r="B90">
-        <v>458.7034872029153</v>
+        <v>13142.93712805737</v>
       </c>
       <c r="C90">
-        <v>809.778934163204</v>
+        <v>11886.60737347761</v>
       </c>
       <c r="D90">
-        <v>-1.245672180578422</v>
+        <v>-2.128204298231682</v>
       </c>
       <c r="E90">
-        <v>0.7202360717653851</v>
+        <v>-0.9247174614248589</v>
       </c>
       <c r="F90">
-        <v>0.6529077230790039</v>
+        <v>-0.3482006162492649</v>
       </c>
       <c r="G90">
-        <v>318.8897808658056</v>
+        <v>7733.485894468941</v>
       </c>
       <c r="H90">
-        <v>378.7807259169778</v>
+        <v>10947.12151979732</v>
       </c>
       <c r="I90">
-        <v>2.375635307179586</v>
+        <v>-0.3766006186694688</v>
       </c>
       <c r="J90">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="91" spans="2:10">
       <c r="B91">
-        <v>443.0422473326458</v>
+        <v>13766.77365691422</v>
       </c>
       <c r="C91">
-        <v>913.7329124565119</v>
+        <v>12568.57968817207</v>
       </c>
       <c r="D91">
-        <v>-1.243286146793833</v>
+        <v>-2.128018481697091</v>
       </c>
       <c r="E91">
-        <v>0.6644366890658122</v>
+        <v>-0.8295862060883749</v>
       </c>
       <c r="F91">
-        <v>0.7436898405039137</v>
+        <v>-0.4839184098985424</v>
       </c>
       <c r="G91">
-        <v>311.2884473552334</v>
+        <v>7831.95572221025</v>
       </c>
       <c r="H91">
-        <v>386.0921075324235</v>
+        <v>10908.17903030977</v>
       </c>
       <c r="I91">
-        <v>2.297510307179586</v>
+        <v>-0.5097963733864499</v>
       </c>
       <c r="J91">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="92" spans="2:10">
       <c r="B92">
-        <v>518.3924301855233</v>
+        <v>15224.56739243264</v>
       </c>
       <c r="C92">
-        <v>873.8304838349212</v>
+        <v>13284.30112543771</v>
       </c>
       <c r="D92">
-        <v>-1.247072270298399</v>
+        <v>-2.132392502432652</v>
       </c>
       <c r="E92">
-        <v>0.6045951351319188</v>
+        <v>-0.7849846939590187</v>
       </c>
       <c r="F92">
-        <v>0.8323704151185439</v>
+        <v>-0.6191989926993191</v>
       </c>
       <c r="G92">
-        <v>304.2809202867652</v>
+        <v>7924.381707824875</v>
       </c>
       <c r="H92">
-        <v>393.974438193485</v>
+        <v>10856.50445584557</v>
       </c>
       <c r="I92">
-        <v>2.219385307179586</v>
+        <v>-0.642992128103431</v>
       </c>
       <c r="J92">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="93" spans="2:10">
       <c r="B93">
-        <v>556.3291708782474</v>
+        <v>15257.71300788553</v>
       </c>
       <c r="C93">
-        <v>855.9733683316695</v>
+        <v>11549.57638582921</v>
       </c>
       <c r="D93">
-        <v>-1.247965328372221</v>
+        <v>-2.12572572643821</v>
       </c>
       <c r="E93">
-        <v>0.571377892139298</v>
+        <v>-0.7113353873626422</v>
       </c>
       <c r="F93">
-        <v>0.8384208974443498</v>
+        <v>-0.7140650685750204</v>
       </c>
       <c r="G93">
-        <v>297.9099484615542</v>
+        <v>8009.126534620629</v>
       </c>
       <c r="H93">
-        <v>402.3796324368081</v>
+        <v>10793.01320610005</v>
       </c>
       <c r="I93">
-        <v>2.141260307179586</v>
+        <v>-0.7761878828204121</v>
       </c>
       <c r="J93">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="94" spans="2:10">
       <c r="B94">
-        <v>626.6389745131059</v>
+        <v>13687.46744922221</v>
       </c>
       <c r="C94">
-        <v>802.8682235184069</v>
+        <v>10070.9864376761</v>
       </c>
       <c r="D94">
-        <v>-1.241122393871974</v>
+        <v>-2.133563171967362</v>
       </c>
       <c r="E94">
-        <v>0.4821809387073636</v>
+        <v>-0.5838790948869043</v>
       </c>
       <c r="F94">
-        <v>0.8859499751259955</v>
+        <v>-0.7689420896163311</v>
       </c>
       <c r="G94">
-        <v>292.2143974316058</v>
+        <v>8084.688956832414</v>
       </c>
       <c r="H94">
-        <v>411.2564151158467</v>
+        <v>10718.83002193828</v>
       </c>
       <c r="I94">
-        <v>2.063135307179586</v>
+        <v>-0.9093836375373932</v>
       </c>
       <c r="J94">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="95" spans="2:10">
       <c r="B95">
-        <v>647.730197967596</v>
+        <v>12600.83298773373</v>
       </c>
       <c r="C95">
-        <v>740.66936889898</v>
+        <v>9377.607183373668</v>
       </c>
       <c r="D95">
-        <v>-1.252646002982849</v>
+        <v>-2.134590142912563</v>
       </c>
       <c r="E95">
-        <v>0.3867508546197712</v>
+        <v>-0.4967094476575963</v>
       </c>
       <c r="F95">
-        <v>0.9313587059950457</v>
+        <v>-0.8833339287023453</v>
       </c>
       <c r="G95">
-        <v>287.2290124039038</v>
+        <v>8149.730394034317</v>
       </c>
       <c r="H95">
-        <v>420.5506342003738</v>
+        <v>10635.26905072803</v>
       </c>
       <c r="I95">
-        <v>1.985010307179586</v>
+        <v>-1.042579392254374</v>
       </c>
       <c r="J95">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="96" spans="2:10">
       <c r="B96">
-        <v>606.958748564026</v>
+        <v>11349.56130580633</v>
       </c>
       <c r="C96">
-        <v>794.3051590859756</v>
+        <v>8751.967598820976</v>
       </c>
       <c r="D96">
-        <v>-1.249027492689281</v>
+        <v>-2.141550464740041</v>
       </c>
       <c r="E96">
-        <v>0.3201945437090042</v>
+        <v>-0.333830309601357</v>
       </c>
       <c r="F96">
-        <v>0.9270283199985239</v>
+        <v>-0.9342822103361593</v>
       </c>
       <c r="G96">
-        <v>282.9842062803376</v>
+        <v>8203.098643952204</v>
       </c>
       <c r="H96">
-        <v>430.205591126169</v>
+        <v>10543.81056635619</v>
       </c>
       <c r="I96">
-        <v>1.906885307179586</v>
+        <v>-1.175775146971355</v>
       </c>
       <c r="J96">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="97" spans="2:10">
       <c r="B97">
-        <v>570.0994809667631</v>
+        <v>11143.62069682384</v>
       </c>
       <c r="C97">
-        <v>743.5693531153069</v>
+        <v>8635.33936587779</v>
       </c>
       <c r="D97">
-        <v>-1.143470141256172</v>
+        <v>-1.956111062682908</v>
       </c>
       <c r="E97">
-        <v>0.2683325646651382</v>
+        <v>-0.258679488336559</v>
       </c>
       <c r="F97">
-        <v>0.9391339529163555</v>
+        <v>-0.9412622640350519</v>
       </c>
       <c r="G97">
-        <v>279.7957351392974</v>
+        <v>8240.452489468906</v>
       </c>
       <c r="H97">
-        <v>439.3326537168238</v>
+        <v>10454.21939800013</v>
       </c>
       <c r="I97">
-        <v>1.835270723846252</v>
+        <v>-1.297871255461921</v>
       </c>
       <c r="J97">
-        <v>-1.145833333333333</v>
+        <v>-1.953537735849057</v>
       </c>
     </row>
     <row r="98" spans="2:10">
       <c r="B98">
-        <v>585.8837937079237</v>
+        <v>10597.76777099271</v>
       </c>
       <c r="C98">
-        <v>730.1956628043007</v>
+        <v>8277.739926358956</v>
       </c>
       <c r="D98">
-        <v>-1.033596793457278</v>
+        <v>-1.776533175693197</v>
       </c>
       <c r="E98">
-        <v>0.1751784597749604</v>
+        <v>-0.1335679876516949</v>
       </c>
       <c r="F98">
-        <v>1.022641551398515</v>
+        <v>-0.9846588501483671</v>
       </c>
       <c r="G98">
-        <v>277.4982568299396</v>
+        <v>8264.238117300096</v>
       </c>
       <c r="H98">
-        <v>447.8161207584841</v>
+        <v>10369.24335688582</v>
       </c>
       <c r="I98">
-        <v>1.770166557179586</v>
+        <v>-1.408867717726072</v>
       </c>
       <c r="J98">
-        <v>-1.041666666666667</v>
+        <v>-1.775943396226415</v>
       </c>
     </row>
     <row r="99" spans="2:10">
       <c r="B99">
-        <v>562.3425852579674</v>
+        <v>10128.12788302026</v>
       </c>
       <c r="C99">
-        <v>743.1461245191254</v>
+        <v>8522.358808636669</v>
       </c>
       <c r="D99">
-        <v>-0.9389415565246371</v>
+        <v>-1.589929074810547</v>
       </c>
       <c r="E99">
-        <v>0.1574233214369147</v>
+        <v>-0.05486902487057619</v>
       </c>
       <c r="F99">
-        <v>1.014026469228658</v>
+        <v>-0.9958529961650773</v>
       </c>
       <c r="G99">
-        <v>275.9316339687823</v>
+        <v>8277.042031895542</v>
       </c>
       <c r="H99">
-        <v>455.569588673573</v>
+        <v>10290.86431930938</v>
       </c>
       <c r="I99">
-        <v>1.711572807179586</v>
+        <v>-1.508764533763808</v>
       </c>
       <c r="J99">
-        <v>-0.9375</v>
+        <v>-1.598349056603774</v>
       </c>
     </row>
     <row r="100" spans="2:10">
       <c r="B100">
-        <v>532.5354871063672</v>
+        <v>10139.98052035426</v>
       </c>
       <c r="C100">
-        <v>711.2277469552998</v>
+        <v>8020.317726229006</v>
       </c>
       <c r="D100">
-        <v>-0.836282045304374</v>
+        <v>-1.416284427824801</v>
       </c>
       <c r="E100">
-        <v>0.04058642425268537</v>
+        <v>0.03912554762962848</v>
       </c>
       <c r="F100">
-        <v>0.982780761204694</v>
+        <v>-1.003609694438254</v>
       </c>
       <c r="G100">
-        <v>274.9450655295786</v>
+        <v>8281.418280931304</v>
       </c>
       <c r="H100">
-        <v>462.5312809446567</v>
+        <v>10220.40634613786</v>
       </c>
       <c r="I100">
-        <v>1.659489473846252</v>
+        <v>4.685623603604458</v>
       </c>
       <c r="J100">
-        <v>-0.8333333333333334</v>
+        <v>-1.420754716981132</v>
       </c>
     </row>
     <row r="101" spans="2:10">
       <c r="B101">
-        <v>532.4542851330609</v>
+        <v>10296.00271189515</v>
       </c>
       <c r="C101">
-        <v>739.4099338419397</v>
+        <v>8109.537717567285</v>
       </c>
       <c r="D101">
-        <v>-0.7225911582518793</v>
+        <v>-1.246830406149919</v>
       </c>
       <c r="E101">
-        <v>0.03069890937834167</v>
+        <v>0.1220286398013069</v>
       </c>
       <c r="F101">
-        <v>1.001469858431577</v>
+        <v>-0.9876322550061817</v>
       </c>
       <c r="G101">
-        <v>274.4001099367754</v>
+        <v>8279.765193544967</v>
       </c>
       <c r="H101">
-        <v>468.659441926553</v>
+        <v>10158.65893896203</v>
       </c>
       <c r="I101">
-        <v>1.613916557179586</v>
+        <v>4.607926080019552</v>
       </c>
       <c r="J101">
-        <v>-0.7291666666666666</v>
+        <v>-1.24316037735849</v>
       </c>
     </row>
     <row r="102" spans="2:10">
       <c r="B102">
-        <v>512.8835321124337</v>
+        <v>10064.86988321714</v>
       </c>
       <c r="C102">
-        <v>681.2746336551031</v>
+        <v>8205.514324979848</v>
       </c>
       <c r="D102">
-        <v>-0.6222041709319895</v>
+        <v>-1.06314018106751</v>
       </c>
       <c r="E102">
-        <v>-0.006763791980449619</v>
+        <v>0.1715129015974193</v>
       </c>
       <c r="F102">
-        <v>0.9897106085547297</v>
+        <v>-0.9836143647564195</v>
       </c>
       <c r="G102">
-        <v>274.1727885573034</v>
+        <v>8274.24442633163</v>
       </c>
       <c r="H102">
-        <v>473.9279775918818</v>
+        <v>10106.00224665137</v>
       </c>
       <c r="I102">
-        <v>1.574854057179586</v>
+        <v>4.541328202661061</v>
       </c>
       <c r="J102">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="103" spans="2:10">
       <c r="B103">
-        <v>513.7970128241307</v>
+        <v>10334.64349833939</v>
       </c>
       <c r="C103">
-        <v>728.2596205502091</v>
+        <v>8409.742029260178</v>
       </c>
       <c r="D103">
-        <v>-0.5232867733457761</v>
+        <v>-0.8961549916800791</v>
       </c>
       <c r="E103">
-        <v>-0.0156872052530976</v>
+        <v>0.2198560507754148</v>
       </c>
       <c r="F103">
-        <v>1.015618213403474</v>
+        <v>-0.9490848025059871</v>
       </c>
       <c r="G103">
-        <v>274.1549567832578</v>
+        <v>8266.733792254023</v>
       </c>
       <c r="H103">
-        <v>478.3224726635665</v>
+        <v>10062.5251114025</v>
       </c>
       <c r="I103">
-        <v>1.542301973846252</v>
+        <v>4.485829971528986</v>
       </c>
       <c r="J103">
-        <v>-0.5208333333333334</v>
+        <v>-0.8879716981132075</v>
       </c>
     </row>
     <row r="104" spans="2:10">
       <c r="B104">
-        <v>516.4336733921916</v>
+        <v>10660.5706177202</v>
       </c>
       <c r="C104">
-        <v>744.0379585455436</v>
+        <v>8467.630256074031</v>
       </c>
       <c r="D104">
-        <v>-0.4167279569439855</v>
+        <v>-0.7145964100837306</v>
       </c>
       <c r="E104">
-        <v>-0.1033687540518637</v>
+        <v>0.2969166872153317</v>
       </c>
       <c r="F104">
-        <v>1.003299526222778</v>
+        <v>-0.9795667367572001</v>
       </c>
       <c r="G104">
-        <v>274.2551186875139</v>
+        <v>8258.805203362675</v>
       </c>
       <c r="H104">
-        <v>481.8366705426793</v>
+        <v>10028.13024459134</v>
       </c>
       <c r="I104">
-        <v>1.516260307179586</v>
+        <v>4.441431386623326</v>
       </c>
       <c r="J104">
-        <v>-0.4166666666666667</v>
+        <v>-0.710377358490566</v>
       </c>
     </row>
     <row r="105" spans="2:10">
       <c r="B105">
-        <v>550.8795346822271</v>
+        <v>10483.56656113427</v>
       </c>
       <c r="C105">
-        <v>732.1052679149522</v>
+        <v>8238.416030088287</v>
       </c>
       <c r="D105">
-        <v>-0.314981458673888</v>
+        <v>-0.5327659352355772</v>
       </c>
       <c r="E105">
-        <v>-0.07234813740742714</v>
+        <v>0.2703877817007251</v>
       </c>
       <c r="F105">
-        <v>0.9792024388900225</v>
+        <v>-0.9532561686235131</v>
       </c>
       <c r="G105">
-        <v>274.3988435643745</v>
+        <v>8251.719685328471</v>
       </c>
       <c r="H105">
-        <v>484.469469229699</v>
+        <v>10002.62344230023</v>
       </c>
       <c r="I105">
-        <v>1.496729057179586</v>
+        <v>4.40813244794408</v>
       </c>
       <c r="J105">
-        <v>-0.3125</v>
+        <v>-0.5327830188679246</v>
       </c>
     </row>
     <row r="106" spans="2:10">
       <c r="B106">
-        <v>495.0153815750326</v>
+        <v>10344.28223705561</v>
       </c>
       <c r="C106">
-        <v>726.7236605441602</v>
+        <v>8887.404263226013</v>
       </c>
       <c r="D106">
-        <v>-0.2149554084273428</v>
+        <v>-0.3577423397694687</v>
       </c>
       <c r="E106">
-        <v>-0.07712361041219387</v>
+        <v>0.3486390403552445</v>
       </c>
       <c r="F106">
-        <v>0.9824179198246725</v>
+        <v>-0.9720825699788842</v>
       </c>
       <c r="G106">
-        <v>274.5289209273695</v>
+        <v>8246.432496922391</v>
       </c>
       <c r="H106">
-        <v>486.2224622886678</v>
+        <v>9985.78559846707</v>
       </c>
       <c r="I106">
-        <v>1.483708223846252</v>
+        <v>4.38593315549125</v>
       </c>
       <c r="J106">
-        <v>-0.2083333333333333</v>
+        <v>-0.355188679245283</v>
       </c>
     </row>
     <row r="107" spans="2:10">
       <c r="B107">
-        <v>549.5129905964113</v>
+        <v>10709.11356562906</v>
       </c>
       <c r="C107">
-        <v>720.7906642423241</v>
+        <v>8818.146537632292</v>
       </c>
       <c r="D107">
-        <v>-0.1024538870713842</v>
+        <v>-0.1656835403426287</v>
       </c>
       <c r="E107">
-        <v>-0.125207851632255</v>
+        <v>0.3152937631663669</v>
       </c>
       <c r="F107">
-        <v>0.9859086940619098</v>
+        <v>-0.89426477877424</v>
       </c>
       <c r="G107">
-        <v>274.6053664882886</v>
+        <v>8243.602675325921</v>
       </c>
       <c r="H107">
-        <v>487.0980376837679</v>
+        <v>9977.4274320246</v>
       </c>
       <c r="I107">
-        <v>1.477197807179586</v>
+        <v>4.374833509264834</v>
       </c>
       <c r="J107">
-        <v>-0.1041666666666667</v>
+        <v>-0.1775943396226415</v>
       </c>
     </row>
     <row r="108" spans="2:10">
       <c r="B108">
-        <v>519.7749706081017</v>
+        <v>10606.30853139047</v>
       </c>
       <c r="C108">
-        <v>729.5795244103836</v>
+        <v>8781.688232480959</v>
       </c>
       <c r="D108">
-        <v>-0.008541195028612279</v>
+        <v>-0.007021772015813547</v>
       </c>
       <c r="E108">
-        <v>-0.08364168804809259</v>
+        <v>0.3550098779774176</v>
       </c>
       <c r="F108">
-        <v>0.9938956565695584</v>
+        <v>-0.9550494471182327</v>
       </c>
       <c r="G108">
-        <v>274.6053664882886</v>
+        <v>8243.602675325921</v>
       </c>
       <c r="H108">
-        <v>487.0980376837679</v>
+        <v>9977.4274320246</v>
       </c>
       <c r="I108">
-        <v>1.477197807179586</v>
+        <v>4.374833509264834</v>
       </c>
       <c r="J108">
         <v>0</v>
@@ -3512,1565 +3512,1565 @@
     </row>
     <row r="109" spans="2:10">
       <c r="B109">
-        <v>536.5217242844669</v>
+        <v>10030.74338458346</v>
       </c>
       <c r="C109">
-        <v>740.11762564259</v>
+        <v>8599.882142142194</v>
       </c>
       <c r="D109">
-        <v>-0.1518173277698642</v>
+        <v>-0.2632102226421506</v>
       </c>
       <c r="E109">
-        <v>-0.1108046555059223</v>
+        <v>0.3524169454190002</v>
       </c>
       <c r="F109">
-        <v>0.983122358436944</v>
+        <v>-0.9899093434523116</v>
       </c>
       <c r="G109">
-        <v>274.6738200392958</v>
+        <v>8241.167326939361</v>
       </c>
       <c r="H109">
-        <v>487.8272536424064</v>
+        <v>9970.488896856195</v>
       </c>
       <c r="I109">
-        <v>1.467432182179586</v>
+        <v>4.358184039925212</v>
       </c>
       <c r="J109">
-        <v>-0.15625</v>
+        <v>-0.2663915094339623</v>
       </c>
     </row>
     <row r="110" spans="2:10">
       <c r="B110">
-        <v>521.9621759160104</v>
+        <v>10603.72680385668</v>
       </c>
       <c r="C110">
-        <v>711.9766532899517</v>
+        <v>8890.606006911743</v>
       </c>
       <c r="D110">
-        <v>-0.3143246184039845</v>
+        <v>-0.52856255762228</v>
       </c>
       <c r="E110">
-        <v>-0.104472920384357</v>
+        <v>0.3452098897710884</v>
       </c>
       <c r="F110">
-        <v>0.9944403272557062</v>
+        <v>-0.9217216865209584</v>
       </c>
       <c r="G110">
-        <v>274.8249628859377</v>
+        <v>8236.066270058242</v>
       </c>
       <c r="H110">
-        <v>489.2842790546155</v>
+        <v>9956.694840640417</v>
       </c>
       <c r="I110">
-        <v>1.447900932179586</v>
+        <v>4.324885101245966</v>
       </c>
       <c r="J110">
-        <v>-0.3125</v>
+        <v>-0.5327830188679246</v>
       </c>
     </row>
     <row r="111" spans="2:10">
       <c r="B111">
-        <v>511.3793201913452</v>
+        <v>11319.90416165488</v>
       </c>
       <c r="C111">
-        <v>768.5295782204673</v>
+        <v>9422.538379401472</v>
       </c>
       <c r="D111">
-        <v>-0.4664666853600148</v>
+        <v>-0.7914837474701268</v>
       </c>
       <c r="E111">
-        <v>-0.1566965976438256</v>
+        <v>0.4430523819375033</v>
       </c>
       <c r="F111">
-        <v>0.968978454964165</v>
+        <v>-0.8833543696377734</v>
       </c>
       <c r="G111">
-        <v>275.0943174924635</v>
+        <v>8227.730062630028</v>
       </c>
       <c r="H111">
-        <v>491.4649725963012</v>
+        <v>9936.269969180899</v>
       </c>
       <c r="I111">
-        <v>1.418604057179586</v>
+        <v>4.274936693227098</v>
       </c>
       <c r="J111">
-        <v>-0.46875</v>
+        <v>-0.7991745283018868</v>
       </c>
     </row>
     <row r="112" spans="2:10">
       <c r="B112">
-        <v>523.3600102108993</v>
+        <v>11049.77592485325</v>
       </c>
       <c r="C112">
-        <v>794.9277985390826</v>
+        <v>9784.929372759751</v>
       </c>
       <c r="D112">
-        <v>-0.6224353488384332</v>
+        <v>-1.074230113038545</v>
       </c>
       <c r="E112">
-        <v>-0.1972442276634809</v>
+        <v>0.4958919859210685</v>
       </c>
       <c r="F112">
-        <v>0.9915446366561784</v>
+        <v>-0.8778334183954887</v>
       </c>
       <c r="G112">
-        <v>275.5384740093331</v>
+        <v>8215.269293979814</v>
       </c>
       <c r="H112">
-        <v>494.3607961123633</v>
+        <v>9909.625714314236</v>
       </c>
       <c r="I112">
-        <v>1.379541557179586</v>
+        <v>4.208338815868608</v>
       </c>
       <c r="J112">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="113" spans="2:10">
       <c r="B113">
-        <v>526.8815199256483</v>
+        <v>12336.87948619123</v>
       </c>
       <c r="C113">
-        <v>740.7853242221953</v>
+        <v>9695.067498850047</v>
       </c>
       <c r="D113">
-        <v>-0.7875509988591811</v>
+        <v>-1.319985274266692</v>
       </c>
       <c r="E113">
-        <v>-0.2247427935789571</v>
+        <v>0.5327924776490142</v>
       </c>
       <c r="F113">
-        <v>0.9787410729139066</v>
+        <v>-0.7856118447198195</v>
       </c>
       <c r="G113">
-        <v>276.2346078047019</v>
+        <v>8197.51143798966</v>
       </c>
       <c r="H113">
-        <v>497.956132371103</v>
+        <v>9877.430786890634</v>
       </c>
       <c r="I113">
-        <v>1.330713432179586</v>
+        <v>4.125091469170495</v>
       </c>
       <c r="J113">
-        <v>-0.78125</v>
+        <v>-1.331957547169811</v>
       </c>
     </row>
     <row r="114" spans="2:10">
       <c r="B114">
-        <v>480.252230124198</v>
+        <v>12875.64248275672</v>
       </c>
       <c r="C114">
-        <v>739.8155648704276</v>
+        <v>11015.25772781903</v>
       </c>
       <c r="D114">
-        <v>-0.9441325901142817</v>
+        <v>-1.608149598967272</v>
       </c>
       <c r="E114">
-        <v>-0.3098668946818653</v>
+        <v>0.6258111190088159</v>
       </c>
       <c r="F114">
-        <v>0.9448177771400151</v>
+        <v>-0.7654446422646538</v>
       </c>
       <c r="G114">
-        <v>277.2795532630432</v>
+        <v>8173.063349333223</v>
       </c>
       <c r="H114">
-        <v>502.2246208502158</v>
+        <v>9840.70257056118</v>
       </c>
       <c r="I114">
-        <v>1.272119682179586</v>
+        <v>4.025194653132758</v>
       </c>
       <c r="J114">
-        <v>-0.9375</v>
+        <v>-1.598349056603774</v>
       </c>
     </row>
     <row r="115" spans="2:10">
       <c r="B115">
-        <v>539.2247954358465</v>
+        <v>11261.23083482774</v>
       </c>
       <c r="C115">
-        <v>759.7322145615258</v>
+        <v>11621.27956986623</v>
       </c>
       <c r="D115">
-        <v>-1.101049305016674</v>
+        <v>-1.864751431845837</v>
       </c>
       <c r="E115">
-        <v>-0.3857653400369649</v>
+        <v>0.7285322216965393</v>
       </c>
       <c r="F115">
-        <v>0.9606402622648323</v>
+        <v>-0.6503105730312898</v>
       </c>
       <c r="G115">
-        <v>278.7881884364042</v>
+        <v>8140.409359391552</v>
       </c>
       <c r="H115">
-        <v>507.1245869990423</v>
+        <v>9800.911210302977</v>
       </c>
       <c r="I115">
-        <v>1.203760307179586</v>
+        <v>3.9086483677554</v>
       </c>
       <c r="J115">
-        <v>-1.09375</v>
+        <v>-1.864740566037736</v>
       </c>
     </row>
     <row r="116" spans="2:10">
       <c r="B116">
-        <v>565.859631535626</v>
+        <v>10694.93971305377</v>
       </c>
       <c r="C116">
-        <v>799.620438426471</v>
+        <v>12854.89275208566</v>
       </c>
       <c r="D116">
-        <v>-1.255992169884806</v>
+        <v>-2.130131678911421</v>
       </c>
       <c r="E116">
-        <v>-0.43722724613853</v>
+        <v>0.7855316457326744</v>
       </c>
       <c r="F116">
-        <v>0.8779364481053225</v>
+        <v>-0.5961322756882423</v>
       </c>
       <c r="G116">
-        <v>280.8908277779248</v>
+        <v>8098.055628643944</v>
       </c>
       <c r="H116">
-        <v>512.593698735889</v>
+        <v>9760.0834038131</v>
       </c>
       <c r="I116">
-        <v>1.125635307179586</v>
+        <v>3.775452613038419</v>
       </c>
       <c r="J116">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="117" spans="2:10">
       <c r="B117">
-        <v>567.3833267680967</v>
+        <v>9164.252836798063</v>
       </c>
       <c r="C117">
-        <v>845.6372206417411</v>
+        <v>11828.07307858497</v>
       </c>
       <c r="D117">
-        <v>-1.407624171441475</v>
+        <v>-2.398085249291254</v>
       </c>
       <c r="E117">
-        <v>-0.5362192734657522</v>
+        <v>0.8839273822870245</v>
       </c>
       <c r="F117">
-        <v>0.8825704717054598</v>
+        <v>-0.4421609632185087</v>
       </c>
       <c r="G117">
-        <v>283.7292766900431</v>
+        <v>8044.729942487126</v>
       </c>
       <c r="H117">
-        <v>518.5430679305646</v>
+        <v>9720.886710690831</v>
       </c>
       <c r="I117">
-        <v>1.037744682179586</v>
+        <v>3.625607388981815</v>
       </c>
       <c r="J117">
-        <v>-1.40625</v>
+        <v>-2.39752358490566</v>
       </c>
     </row>
     <row r="118" spans="2:10">
       <c r="B118">
-        <v>608.7000364568537</v>
+        <v>8718.183303804135</v>
       </c>
       <c r="C118">
-        <v>888.1617904493135</v>
+        <v>10909.40288308131</v>
       </c>
       <c r="D118">
-        <v>-1.564233544284679</v>
+        <v>-2.678838162733889</v>
       </c>
       <c r="E118">
-        <v>-0.572831202162658</v>
+        <v>0.9154244804024196</v>
       </c>
       <c r="F118">
-        <v>0.8156223618214942</v>
+        <v>-0.3114454415590165</v>
       </c>
       <c r="G118">
-        <v>287.4511807215793</v>
+        <v>7979.641485919778</v>
       </c>
       <c r="H118">
-        <v>524.8511271152811</v>
+        <v>9686.668118867199</v>
       </c>
       <c r="I118">
-        <v>0.9400884321795857</v>
+        <v>3.459112695585588</v>
       </c>
       <c r="J118">
-        <v>-1.5625</v>
+        <v>-2.663915094339623</v>
       </c>
     </row>
     <row r="119" spans="2:10">
       <c r="B119">
-        <v>655.5448958887542</v>
+        <v>8299.068548783975</v>
       </c>
       <c r="C119">
-        <v>776.0897845822743</v>
+        <v>10367.43573362855</v>
       </c>
       <c r="D119">
-        <v>-1.720072559807995</v>
+        <v>-2.92160320512338</v>
       </c>
       <c r="E119">
-        <v>-0.6094789698759194</v>
+        <v>0.9832878198169541</v>
       </c>
       <c r="F119">
-        <v>0.7653422211774059</v>
+        <v>-0.1509940904091707</v>
       </c>
       <c r="G119">
-        <v>292.2023155076801</v>
+        <v>7902.796227619898</v>
       </c>
       <c r="H119">
-        <v>531.3577526926986</v>
+        <v>9661.41374272115</v>
       </c>
       <c r="I119">
-        <v>0.8326665571795857</v>
+        <v>3.275968532849739</v>
       </c>
       <c r="J119">
-        <v>-1.71875</v>
+        <v>-2.930306603773585</v>
       </c>
     </row>
     <row r="120" spans="2:10">
       <c r="B120">
-        <v>665.2878021363827</v>
+        <v>7846.935962693528</v>
       </c>
       <c r="C120">
-        <v>703.6531116732087</v>
+        <v>10506.1609934786</v>
       </c>
       <c r="D120">
-        <v>-1.879648602285565</v>
+        <v>-3.198329363481637</v>
       </c>
       <c r="E120">
-        <v>-0.7468597372506436</v>
+        <v>1.017056772952067</v>
       </c>
       <c r="F120">
-        <v>0.67708233638003</v>
+        <v>0.05200631810363469</v>
       </c>
       <c r="G120">
-        <v>298.1165251186465</v>
+        <v>7815.349531191105</v>
       </c>
       <c r="H120">
-        <v>537.8592713081036</v>
+        <v>9649.591774252418</v>
       </c>
       <c r="I120">
-        <v>0.7154790571795857</v>
+        <v>3.076174900774268</v>
       </c>
       <c r="J120">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="121" spans="2:10">
       <c r="B121">
-        <v>778.3979773546271</v>
+        <v>7783.026796423133</v>
       </c>
       <c r="C121">
-        <v>639.8979394345477</v>
+        <v>10921.82229773358</v>
       </c>
       <c r="D121">
-        <v>-1.874983436071969</v>
+        <v>-3.200715807293266</v>
       </c>
       <c r="E121">
-        <v>-0.8366074780680397</v>
+        <v>0.9749921647263581</v>
       </c>
       <c r="F121">
-        <v>0.5766804313812786</v>
+        <v>0.2646971594069034</v>
       </c>
       <c r="G121">
-        <v>304.7503255943586</v>
+        <v>7727.29609180812</v>
       </c>
       <c r="H121">
-        <v>543.6247123907398</v>
+        <v>9655.360263449096</v>
       </c>
       <c r="I121">
-        <v>0.5982915571795857</v>
+        <v>2.876381268698796</v>
       </c>
       <c r="J121">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="122" spans="2:10">
       <c r="B122">
-        <v>778.3660137838094</v>
+        <v>8375.090294362064</v>
       </c>
       <c r="C122">
-        <v>641.3900309507065</v>
+        <v>11560.42475482708</v>
       </c>
       <c r="D122">
-        <v>-1.869342219748433</v>
+        <v>-3.200537353129009</v>
       </c>
       <c r="E122">
-        <v>-0.8941947003266708</v>
+        <v>0.8730856851605323</v>
       </c>
       <c r="F122">
-        <v>0.4684680880878081</v>
+        <v>0.4247807416350213</v>
       </c>
       <c r="G122">
-        <v>312.0127197584376</v>
+        <v>7642.139105703789</v>
       </c>
       <c r="H122">
-        <v>548.5749902248069</v>
+        <v>9678.489711613978</v>
       </c>
       <c r="I122">
-        <v>0.4811040571795857</v>
+        <v>2.676587636623324</v>
       </c>
       <c r="J122">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="123" spans="2:10">
       <c r="B123">
-        <v>726.1575169005442</v>
+        <v>9676.009161444163</v>
       </c>
       <c r="C123">
-        <v>585.7578373920252</v>
+        <v>12966.66704612458</v>
       </c>
       <c r="D123">
-        <v>-1.87379316713973</v>
+        <v>-3.207425494410233</v>
       </c>
       <c r="E123">
-        <v>-0.9101489447875415</v>
+        <v>0.8271163243284965</v>
       </c>
       <c r="F123">
-        <v>0.3522536907528083</v>
+        <v>0.644147032214433</v>
       </c>
       <c r="G123">
-        <v>319.8040878883584</v>
+        <v>7563.266534041374</v>
       </c>
       <c r="H123">
-        <v>552.6422008528617</v>
+        <v>9718.059916239965</v>
       </c>
       <c r="I123">
-        <v>0.3639165571795857</v>
+        <v>2.476794004547853</v>
       </c>
       <c r="J123">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="124" spans="2:10">
       <c r="B124">
-        <v>728.208302619689</v>
+        <v>11404.93594449543</v>
       </c>
       <c r="C124">
-        <v>541.1990218377048</v>
+        <v>15830.3402925518</v>
       </c>
       <c r="D124">
-        <v>-1.876821499223793</v>
+        <v>-3.196791963568234</v>
       </c>
       <c r="E124">
-        <v>-0.9690217632287345</v>
+        <v>0.6441542398987943</v>
       </c>
       <c r="F124">
-        <v>0.251817880734779</v>
+        <v>0.7356785126078587</v>
       </c>
       <c r="G124">
-        <v>328.0175542192338</v>
+        <v>7493.81631325878</v>
       </c>
       <c r="H124">
-        <v>555.7705535280699</v>
+        <v>9772.496581163838</v>
       </c>
       <c r="I124">
-        <v>0.2467290571795857</v>
+        <v>2.277000372472381</v>
       </c>
       <c r="J124">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="125" spans="2:10">
       <c r="B125">
-        <v>647.014789463547</v>
+        <v>11789.38268154108</v>
       </c>
       <c r="C125">
-        <v>563.8622145830382</v>
+        <v>14129.20346467072</v>
       </c>
       <c r="D125">
-        <v>-1.881731522569811</v>
+        <v>-3.192030961108912</v>
       </c>
       <c r="E125">
-        <v>-0.9861593878357633</v>
+        <v>0.5044190444342654</v>
       </c>
       <c r="F125">
-        <v>0.142090817084753</v>
+        <v>0.8902883422575794</v>
       </c>
       <c r="G125">
-        <v>336.5404529801945</v>
+        <v>7436.551512618498</v>
       </c>
       <c r="H125">
-        <v>557.9171360071099</v>
+        <v>9839.633949762956</v>
       </c>
       <c r="I125">
-        <v>0.1295415571795857</v>
+        <v>2.077206740396909</v>
       </c>
       <c r="J125">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="126" spans="2:10">
       <c r="B126">
-        <v>670.7921084955092</v>
+        <v>10387.32084499472</v>
       </c>
       <c r="C126">
-        <v>573.2851314324591</v>
+        <v>13337.58504421553</v>
       </c>
       <c r="D126">
-        <v>-1.866050509159016</v>
+        <v>-3.189334957143274</v>
       </c>
       <c r="E126">
-        <v>-1.009080832788091</v>
+        <v>0.2808953610145727</v>
       </c>
       <c r="F126">
-        <v>-0.01324032107641374</v>
+        <v>0.9503001280844524</v>
       </c>
       <c r="G126">
-        <v>345.2558738534448</v>
+        <v>7393.750405806185</v>
       </c>
       <c r="H126">
-        <v>559.052503186052</v>
+        <v>9916.800969340144</v>
       </c>
       <c r="I126">
-        <v>0.01235405717958571</v>
+        <v>1.877413108321438</v>
       </c>
       <c r="J126">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="127" spans="2:10">
       <c r="B127">
-        <v>639.4627844107554</v>
+        <v>9870.980699568459</v>
       </c>
       <c r="C127">
-        <v>599.9232014610735</v>
+        <v>12600.5275525158</v>
       </c>
       <c r="D127">
-        <v>-1.873924771554978</v>
+        <v>-3.191490561765423</v>
       </c>
       <c r="E127">
-        <v>-1.017352544692418</v>
+        <v>0.132743912743977</v>
       </c>
       <c r="F127">
-        <v>-0.09749571716555297</v>
+        <v>1.005185845412969</v>
       </c>
       <c r="G127">
-        <v>354.044265656624</v>
+        <v>7367.115830067009</v>
       </c>
       <c r="H127">
-        <v>559.1610810047756</v>
+        <v>10000.92755865636</v>
       </c>
       <c r="I127">
-        <v>-0.1048334428204143</v>
+        <v>1.677619476245966</v>
       </c>
       <c r="J127">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="128" spans="2:10">
       <c r="B128">
-        <v>593.2251918238367</v>
+        <v>9918.908896457733</v>
       </c>
       <c r="C128">
-        <v>588.6519740357824</v>
+        <v>12617.02611558886</v>
       </c>
       <c r="D128">
-        <v>-1.882089511029509</v>
+        <v>-3.190247516496515</v>
       </c>
       <c r="E128">
-        <v>-0.9732329336470092</v>
+        <v>-0.1043974613490658</v>
       </c>
       <c r="F128">
-        <v>-0.2279069992558882</v>
+        <v>1.021967094618948</v>
       </c>
       <c r="G128">
-        <v>362.7850762504378</v>
+        <v>7357.707439016395</v>
       </c>
       <c r="H128">
-        <v>558.2413800794867</v>
+        <v>10088.66675076926</v>
       </c>
       <c r="I128">
-        <v>-0.2220209428204143</v>
+        <v>1.477825844170495</v>
       </c>
       <c r="J128">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="129" spans="2:10">
       <c r="B129">
-        <v>675.9356729505985</v>
+        <v>10386.46578849782</v>
       </c>
       <c r="C129">
-        <v>585.5371212061242</v>
+        <v>13343.02483523204</v>
       </c>
       <c r="D129">
-        <v>-1.873464916686749</v>
+        <v>-3.204677807588073</v>
       </c>
       <c r="E129">
-        <v>-0.9626255620291585</v>
+        <v>-0.2912962747012162</v>
       </c>
       <c r="F129">
-        <v>-0.3076607383153663</v>
+        <v>0.9362296344686961</v>
       </c>
       <c r="G129">
-        <v>371.3584061766182</v>
+        <v>7365.899544439513</v>
       </c>
       <c r="H129">
-        <v>556.3060161328951</v>
+        <v>10176.52785173847</v>
       </c>
       <c r="I129">
-        <v>-0.3392084428204143</v>
+        <v>1.278032212095023</v>
       </c>
       <c r="J129">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="130" spans="2:10">
       <c r="B130">
-        <v>656.8160947446408</v>
+        <v>11121.23773544513</v>
       </c>
       <c r="C130">
-        <v>609.6333389727024</v>
+        <v>14401.26539550684</v>
       </c>
       <c r="D130">
-        <v>-1.879831118699636</v>
+        <v>-3.196618248514989</v>
       </c>
       <c r="E130">
-        <v>-0.8994286932144947</v>
+        <v>-0.5026767105554538</v>
       </c>
       <c r="F130">
-        <v>-0.4746056662436416</v>
+        <v>0.929387154601391</v>
       </c>
       <c r="G130">
-        <v>379.6466533429253</v>
+        <v>7391.366224338784</v>
       </c>
       <c r="H130">
-        <v>553.381536941807</v>
+        <v>10261.01531749341</v>
       </c>
       <c r="I130">
-        <v>-0.4563959428204143</v>
+        <v>1.078238580019551</v>
       </c>
       <c r="J130">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="131" spans="2:10">
       <c r="B131">
-        <v>726.3693051367919</v>
+        <v>12461.97474903963</v>
       </c>
       <c r="C131">
-        <v>612.0106506702994</v>
+        <v>15915.05988986194</v>
       </c>
       <c r="D131">
-        <v>-1.877305505269776</v>
+        <v>-3.197895304231061</v>
       </c>
       <c r="E131">
-        <v>-0.8326554270957405</v>
+        <v>-0.6569410545639371</v>
       </c>
       <c r="F131">
-        <v>-0.5626442040252453</v>
+        <v>0.7674091387731617</v>
       </c>
       <c r="G131">
-        <v>387.5361261947183</v>
+        <v>7433.094289704088</v>
       </c>
       <c r="H131">
-        <v>549.5080581759264</v>
+        <v>10338.76782366302</v>
       </c>
       <c r="I131">
-        <v>-0.5735834428204143</v>
+        <v>0.8784449479440796</v>
       </c>
       <c r="J131">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="132" spans="2:10">
       <c r="B132">
-        <v>742.1946341372985</v>
+        <v>15159.53760434392</v>
       </c>
       <c r="C132">
-        <v>606.0365806719763</v>
+        <v>13186.85931181536</v>
       </c>
       <c r="D132">
-        <v>-1.888433670476737</v>
+        <v>-3.196153261050489</v>
       </c>
       <c r="E132">
-        <v>-0.7631154920138393</v>
+        <v>-0.7857959717650155</v>
       </c>
       <c r="F132">
-        <v>-0.6453243399996366</v>
+        <v>0.6822298274939006</v>
       </c>
       <c r="G132">
-        <v>394.9186032448937</v>
+        <v>7489.423594124153</v>
       </c>
       <c r="H132">
-        <v>544.7387131231397</v>
+        <v>10406.69199548967</v>
       </c>
       <c r="I132">
-        <v>-0.6907709428204143</v>
+        <v>0.6786513158686078</v>
       </c>
       <c r="J132">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="133" spans="2:10">
       <c r="B133">
-        <v>766.8213494793672</v>
+        <v>13798.96142294567</v>
       </c>
       <c r="C133">
-        <v>544.1730050370335</v>
+        <v>11538.08390274891</v>
       </c>
       <c r="D133">
-        <v>-1.869202600486228</v>
+        <v>-3.207070215389682</v>
       </c>
       <c r="E133">
-        <v>-0.6938997210934841</v>
+        <v>-0.8777946607812784</v>
       </c>
       <c r="F133">
-        <v>-0.716973880762705</v>
+        <v>0.4788521166455251</v>
       </c>
       <c r="G133">
-        <v>401.6928175698071</v>
+        <v>7558.113082525766</v>
       </c>
       <c r="H133">
-        <v>539.1389238495113</v>
+        <v>10462.08547739783</v>
       </c>
       <c r="I133">
-        <v>-0.8079584428204143</v>
+        <v>0.4788576837931361</v>
       </c>
       <c r="J133">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="134" spans="2:10">
       <c r="B134">
-        <v>680.1251727167643</v>
+        <v>12832.57935341305</v>
       </c>
       <c r="C134">
-        <v>520.0465783897522</v>
+        <v>11016.07024776425</v>
       </c>
       <c r="D134">
-        <v>-1.866652106815991</v>
+        <v>-3.191963174585294</v>
       </c>
       <c r="E134">
-        <v>-0.5930717345791812</v>
+        <v>-0.9608480407428862</v>
       </c>
       <c r="F134">
-        <v>-0.8145695932717898</v>
+        <v>0.2713430648864804</v>
       </c>
       <c r="G134">
-        <v>407.765845908048</v>
+        <v>7636.429951299086</v>
       </c>
       <c r="H134">
-        <v>532.7855037916347</v>
+        <v>10502.74444590821</v>
       </c>
       <c r="I134">
-        <v>-0.9251459428204143</v>
+        <v>0.2790640517176644</v>
       </c>
       <c r="J134">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="135" spans="2:10">
       <c r="B135">
-        <v>577.5852555232937</v>
+        <v>12389.79873696905</v>
       </c>
       <c r="C135">
-        <v>447.0909432924857</v>
+        <v>10470.53418042431</v>
       </c>
       <c r="D135">
-        <v>-1.87087627798277</v>
+        <v>-3.204400247156748</v>
       </c>
       <c r="E135">
-        <v>-0.5066120846537897</v>
+        <v>-0.9943407710722588</v>
       </c>
       <c r="F135">
-        <v>-0.8799785826956534</v>
+        <v>0.07791936174462226</v>
       </c>
       <c r="G135">
-        <v>413.0543833075199</v>
+        <v>7721.258372583469</v>
       </c>
       <c r="H135">
-        <v>525.7656040912619</v>
+        <v>10527.05128850827</v>
       </c>
       <c r="I135">
-        <v>-1.042333442820414</v>
+        <v>0.07927041964219264</v>
       </c>
       <c r="J135">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="136" spans="2:10">
       <c r="B136">
-        <v>555.54695774888</v>
+        <v>12166.45265268692</v>
       </c>
       <c r="C136">
-        <v>426.5019190233772</v>
+        <v>10893.50753154051</v>
       </c>
       <c r="D136">
-        <v>-1.874126815706933</v>
+        <v>-3.198327541039138</v>
       </c>
       <c r="E136">
-        <v>-0.4150455955147013</v>
+        <v>-0.9980842106968736</v>
       </c>
       <c r="F136">
-        <v>-0.9330115154764563</v>
+        <v>-0.1154242493663038</v>
       </c>
       <c r="G136">
-        <v>417.4858858362358</v>
+        <v>7809.223457130252</v>
       </c>
       <c r="H136">
-        <v>518.1755181255504</v>
+        <v>10534.03896018506</v>
       </c>
       <c r="I136">
-        <v>-1.159520942820414</v>
+        <v>-0.1205232124332791</v>
       </c>
       <c r="J136">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="137" spans="2:10">
       <c r="B137">
-        <v>545.0713021885757</v>
+        <v>12661.61635767004</v>
       </c>
       <c r="C137">
-        <v>437.0802517133196</v>
+        <v>11237.03025321406</v>
       </c>
       <c r="D137">
-        <v>-1.8747202088093</v>
+        <v>-3.190219454169599</v>
       </c>
       <c r="E137">
-        <v>-0.2901688314947989</v>
+        <v>-0.9753526869056987</v>
       </c>
       <c r="F137">
-        <v>-0.9353085387611414</v>
+        <v>-0.2948380065671407</v>
       </c>
       <c r="G137">
-        <v>420.9995656820353</v>
+        <v>7896.825523893857</v>
       </c>
       <c r="H137">
-        <v>510.1193606314265</v>
+        <v>10523.42945720283</v>
       </c>
       <c r="I137">
-        <v>-1.276708442820414</v>
+        <v>-0.3203168445087508</v>
       </c>
       <c r="J137">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="138" spans="2:10">
       <c r="B138">
-        <v>497.1428684294789</v>
+        <v>13958.57463776619</v>
       </c>
       <c r="C138">
-        <v>452.9349111788239</v>
+        <v>11782.85702345749</v>
       </c>
       <c r="D138">
-        <v>-1.880298143605938</v>
+        <v>-3.204703567506914</v>
       </c>
       <c r="E138">
-        <v>-0.1760691523420743</v>
+        <v>-0.8840346895148437</v>
       </c>
       <c r="F138">
-        <v>-0.9499284419656868</v>
+        <v>-0.5172521321992567</v>
       </c>
       <c r="G138">
-        <v>423.547224991239</v>
+        <v>7980.579334450595</v>
       </c>
       <c r="H138">
-        <v>501.7076395427828</v>
+        <v>10495.64487745055</v>
       </c>
       <c r="I138">
-        <v>-1.393895942820414</v>
+        <v>-0.5201104765842225</v>
       </c>
       <c r="J138">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="139" spans="2:10">
       <c r="B139">
-        <v>476.0634345278161</v>
+        <v>15867.60393582697</v>
       </c>
       <c r="C139">
-        <v>441.2178425029383</v>
+        <v>12310.7232129025</v>
       </c>
       <c r="D139">
-        <v>-1.878709489003802</v>
+        <v>-3.204087932458651</v>
       </c>
       <c r="E139">
-        <v>-0.0834960599247262</v>
+        <v>-0.7291844378994542</v>
       </c>
       <c r="F139">
-        <v>-0.9806149031357042</v>
+        <v>-0.6841560866095994</v>
       </c>
       <c r="G139">
-        <v>425.0939170083091</v>
+        <v>8057.15275281935</v>
       </c>
       <c r="H139">
-        <v>493.0557401309057</v>
+        <v>10451.7906273246</v>
       </c>
       <c r="I139">
-        <v>-1.511083442820414</v>
+        <v>-0.7199041086596942</v>
       </c>
       <c r="J139">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="140" spans="2:10">
       <c r="B140">
-        <v>446.8592516389593</v>
+        <v>12992.11373586953</v>
       </c>
       <c r="C140">
-        <v>405.8634454760725</v>
+        <v>10070.75984784714</v>
       </c>
       <c r="D140">
-        <v>-1.88176099547692</v>
+        <v>-3.20548749396053</v>
       </c>
       <c r="E140">
-        <v>0.07966800118003169</v>
+        <v>-0.5743158379481578</v>
       </c>
       <c r="F140">
-        <v>-0.9887649512674769</v>
+        <v>-0.7851446553437785</v>
       </c>
       <c r="G140">
-        <v>425.6184254475288</v>
+        <v>8123.499314118738</v>
       </c>
       <c r="H140">
-        <v>484.2823422414849</v>
+        <v>10393.61144325907</v>
       </c>
       <c r="I140">
-        <v>4.654914364359172</v>
+        <v>-0.919697740735166</v>
       </c>
       <c r="J140">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="141" spans="2:10">
       <c r="B141">
-        <v>480.9501379532213</v>
+        <v>11490.56899081219</v>
       </c>
       <c r="C141">
-        <v>456.1940862758685</v>
+        <v>9362.143445949816</v>
       </c>
       <c r="D141">
-        <v>-1.877974927577203</v>
+        <v>-3.194112874323933</v>
       </c>
       <c r="E141">
-        <v>0.169626876058238</v>
+        <v>-0.4375691612253386</v>
       </c>
       <c r="F141">
-        <v>-0.9933878185910626</v>
+        <v>-0.9053770353972412</v>
       </c>
       <c r="G141">
-        <v>425.113555521064</v>
+        <v>8176.97942783151</v>
       </c>
       <c r="H141">
-        <v>475.5077923392815</v>
+        <v>10323.42197758184</v>
       </c>
       <c r="I141">
-        <v>4.537726864359172</v>
+        <v>-1.119491372810638</v>
       </c>
       <c r="J141">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="142" spans="2:10">
       <c r="B142">
-        <v>475.3539431441918</v>
+        <v>10618.84988880894</v>
       </c>
       <c r="C142">
-        <v>456.6564717689184</v>
+        <v>8495.046735510863</v>
       </c>
       <c r="D142">
-        <v>-1.866531275159543</v>
+        <v>-3.195362682618485</v>
       </c>
       <c r="E142">
-        <v>0.2578158857074528</v>
+        <v>-0.2412473238458179</v>
       </c>
       <c r="F142">
-        <v>-0.9673970226428925</v>
+        <v>-0.9528556464631134</v>
       </c>
       <c r="G142">
-        <v>423.5862326313165</v>
+        <v>8215.465393617924</v>
       </c>
       <c r="H142">
-        <v>466.852452691448</v>
+        <v>10244.01471033084</v>
       </c>
       <c r="I142">
-        <v>4.420539364359172</v>
+        <v>-1.319285004886109</v>
       </c>
       <c r="J142">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="143" spans="2:10">
       <c r="B143">
-        <v>526.5634152397555</v>
+        <v>9984.866718360847</v>
       </c>
       <c r="C143">
-        <v>454.7367844800844</v>
+        <v>8180.828077325965</v>
       </c>
       <c r="D143">
-        <v>-1.860221469603607</v>
+        <v>-3.199373403176139</v>
       </c>
       <c r="E143">
-        <v>0.3903601308055779</v>
+        <v>-0.03142587827912864</v>
       </c>
       <c r="F143">
-        <v>-0.9262524888690353</v>
+        <v>-1.002032105642167</v>
       </c>
       <c r="G143">
-        <v>421.0574073737849</v>
+        <v>8237.426051635672</v>
       </c>
       <c r="H143">
-        <v>458.4350503340828</v>
+        <v>10158.54885074812</v>
       </c>
       <c r="I143">
-        <v>4.303351864359172</v>
+        <v>-1.519078636961581</v>
       </c>
       <c r="J143">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="144" spans="2:10">
       <c r="B144">
-        <v>489.3465377602358</v>
+        <v>10357.84631325723</v>
       </c>
       <c r="C144">
-        <v>502.1611971535733</v>
+        <v>8460.467575609198</v>
       </c>
       <c r="D144">
-        <v>-1.873362494759</v>
+        <v>-3.189873211770545</v>
       </c>
       <c r="E144">
-        <v>0.4452937932728249</v>
+        <v>0.1347921435517241</v>
       </c>
       <c r="F144">
-        <v>-0.8489877049491269</v>
+        <v>-1.013526092306608</v>
       </c>
       <c r="G144">
-        <v>417.5617681535294</v>
+        <v>8241.987699562869</v>
       </c>
       <c r="H144">
-        <v>450.3710484695791</v>
+        <v>10070.42464849373</v>
       </c>
       <c r="I144">
-        <v>4.186164364359172</v>
+        <v>4.564313038142534</v>
       </c>
       <c r="J144">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="145" spans="2:10">
       <c r="B145">
-        <v>558.2484213426078</v>
+        <v>10848.68020268449</v>
       </c>
       <c r="C145">
-        <v>521.4363471835582</v>
+        <v>8827.432936823761</v>
       </c>
       <c r="D145">
-        <v>-1.874598555278599</v>
+        <v>-3.199274152239018</v>
       </c>
       <c r="E145">
-        <v>0.595647348124946</v>
+        <v>0.3297943574043579</v>
       </c>
       <c r="F145">
-        <v>-0.8048406526329984</v>
+        <v>-0.9774055591753995</v>
       </c>
       <c r="G145">
-        <v>413.1472653573376</v>
+        <v>8228.968852747174</v>
       </c>
       <c r="H145">
-        <v>442.771062634637</v>
+        <v>9983.148115093423</v>
       </c>
       <c r="I145">
-        <v>4.068976864359172</v>
+        <v>4.364519406067062</v>
       </c>
       <c r="J145">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="146" spans="2:10">
       <c r="B146">
-        <v>622.30311737536</v>
+        <v>11611.02408729993</v>
       </c>
       <c r="C146">
-        <v>580.3284156268249</v>
+        <v>9699.281952509089</v>
       </c>
       <c r="D146">
-        <v>-1.872173748207621</v>
+        <v>-3.200007840725724</v>
       </c>
       <c r="E146">
-        <v>0.7199070325695389</v>
+        <v>0.5108501872172296</v>
       </c>
       <c r="F146">
-        <v>-0.7382244805437426</v>
+        <v>-0.8621446747753378</v>
       </c>
       <c r="G146">
-        <v>407.8744536086172</v>
+        <v>8198.887464552365</v>
       </c>
       <c r="H146">
-        <v>435.7393433646816</v>
+        <v>9900.191537662466</v>
       </c>
       <c r="I146">
-        <v>3.951789364359172</v>
+        <v>4.164725773991591</v>
       </c>
       <c r="J146">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="147" spans="2:10">
       <c r="B147">
-        <v>509.756413651567</v>
+        <v>12006.78675653497</v>
       </c>
       <c r="C147">
-        <v>615.6233816330262</v>
+        <v>11107.30922627461</v>
       </c>
       <c r="D147">
-        <v>-1.883461552168016</v>
+        <v>-3.19255100377163</v>
       </c>
       <c r="E147">
-        <v>0.7920024161811299</v>
+        <v>0.6692547141653119</v>
       </c>
       <c r="F147">
-        <v>-0.648773693144855</v>
+        <v>-0.71914880856671</v>
       </c>
       <c r="G147">
-        <v>401.8156611274384</v>
+        <v>8152.940319641724</v>
       </c>
       <c r="H147">
-        <v>429.3723461682853</v>
+        <v>9824.85533435127</v>
       </c>
       <c r="I147">
-        <v>3.834601864359172</v>
+        <v>3.964932141916119</v>
       </c>
       <c r="J147">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="148" spans="2:10">
       <c r="B148">
-        <v>473.1857926879106</v>
+        <v>10329.76248874474</v>
       </c>
       <c r="C148">
-        <v>688.997037485534</v>
+        <v>12849.86002961847</v>
       </c>
       <c r="D148">
-        <v>-1.873930189768031</v>
+        <v>-3.203398677140765</v>
       </c>
       <c r="E148">
-        <v>0.8231693647369304</v>
+        <v>0.795213691840657</v>
       </c>
       <c r="F148">
-        <v>-0.5466041032470104</v>
+        <v>-0.5637161187130115</v>
       </c>
       <c r="G148">
-        <v>395.0539975897811</v>
+        <v>8092.955420034127</v>
       </c>
       <c r="H148">
-        <v>423.7574084275422</v>
+        <v>9760.136747578599</v>
       </c>
       <c r="I148">
-        <v>3.717414364359172</v>
+        <v>3.765138509840647</v>
       </c>
       <c r="J148">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="149" spans="2:10">
       <c r="B149">
-        <v>421.6495777520507</v>
+        <v>8470.919399573915</v>
       </c>
       <c r="C149">
-        <v>653.3268144054506</v>
+        <v>11502.58112214295</v>
       </c>
       <c r="D149">
-        <v>-1.885955979914236</v>
+        <v>-3.204474360168491</v>
       </c>
       <c r="E149">
-        <v>0.8775524444134571</v>
+        <v>0.8895933314285592</v>
       </c>
       <c r="F149">
-        <v>-0.3981786652146196</v>
+        <v>-0.4185649220645478</v>
       </c>
       <c r="G149">
-        <v>387.6822140953808</v>
+        <v>8021.31925824827</v>
       </c>
       <c r="H149">
-        <v>418.9715513736182</v>
+        <v>9708.610599077323</v>
       </c>
       <c r="I149">
-        <v>3.600226864359172</v>
+        <v>3.565344877765176</v>
       </c>
       <c r="J149">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="150" spans="2:10">
       <c r="B150">
-        <v>393.5258809623461</v>
+        <v>7889.341503131817</v>
       </c>
       <c r="C150">
-        <v>608.8968737443626</v>
+        <v>10602.58345597563</v>
       </c>
       <c r="D150">
-        <v>-1.876045491677435</v>
+        <v>-3.189446948423862</v>
       </c>
       <c r="E150">
-        <v>0.9183741879878409</v>
+        <v>1.018757310966252</v>
       </c>
       <c r="F150">
-        <v>-0.3386647791431673</v>
+        <v>-0.2032616390624966</v>
       </c>
       <c r="G150">
-        <v>379.8014308822249</v>
+        <v>7940.881870964858</v>
       </c>
       <c r="H150">
-        <v>415.0804235710208</v>
+        <v>9672.326850899888</v>
       </c>
       <c r="I150">
-        <v>3.483039364359172</v>
+        <v>3.365551245689704</v>
       </c>
       <c r="J150">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="151" spans="2:10">
       <c r="B151">
-        <v>423.9555422775493</v>
+        <v>7871.65380442163</v>
       </c>
       <c r="C151">
-        <v>560.9486737818459</v>
+        <v>10276.67883583901</v>
       </c>
       <c r="D151">
-        <v>-1.711761235631507</v>
+        <v>-2.934321394060203</v>
       </c>
       <c r="E151">
-        <v>0.9811460368529781</v>
+        <v>0.9781247710140106</v>
       </c>
       <c r="F151">
-        <v>-0.2360384757969509</v>
+        <v>-0.03679582075176924</v>
       </c>
       <c r="G151">
-        <v>372.2098902934221</v>
+        <v>7862.013318996899</v>
       </c>
       <c r="H151">
-        <v>412.3826523336917</v>
+        <v>9654.362198156825</v>
       </c>
       <c r="I151">
-        <v>3.375617489359172</v>
+        <v>3.182407082953855</v>
       </c>
       <c r="J151">
-        <v>-1.71875</v>
+        <v>-2.930306603773585</v>
       </c>
     </row>
     <row r="152" spans="2:10">
       <c r="B152">
-        <v>385.9136319346172</v>
+        <v>7538.880663531149</v>
       </c>
       <c r="C152">
-        <v>612.2507124697923</v>
+        <v>10311.36335023905</v>
       </c>
       <c r="D152">
-        <v>-1.561570419051395</v>
+        <v>-2.668629941912525</v>
       </c>
       <c r="E152">
-        <v>1.0354387898046</v>
+        <v>1.005940291964524</v>
       </c>
       <c r="F152">
-        <v>-0.09667217807080056</v>
+        <v>0.1451575317630231</v>
       </c>
       <c r="G152">
-        <v>365.0853228687867</v>
+        <v>7788.539402325407</v>
       </c>
       <c r="H152">
-        <v>410.6842061880411</v>
+        <v>9651.361735915367</v>
       </c>
       <c r="I152">
-        <v>3.277961239359172</v>
+        <v>3.015912389557629</v>
       </c>
       <c r="J152">
-        <v>-1.5625</v>
+        <v>-2.663915094339623</v>
       </c>
     </row>
     <row r="153" spans="2:10">
       <c r="B153">
-        <v>395.3008394983875</v>
+        <v>8211.886680837053</v>
       </c>
       <c r="C153">
-        <v>588.5742054821012</v>
+        <v>10704.37296094309</v>
       </c>
       <c r="D153">
-        <v>-1.406819350466453</v>
+        <v>-2.404535406973025</v>
       </c>
       <c r="E153">
-        <v>1.031988224406036</v>
+        <v>0.9667753259933977</v>
       </c>
       <c r="F153">
-        <v>-0.1108275577148029</v>
+        <v>0.2683874466723282</v>
       </c>
       <c r="G153">
-        <v>358.5547228854114</v>
+        <v>7722.879761056929</v>
       </c>
       <c r="H153">
-        <v>409.7880756738867</v>
+        <v>9659.657582123649</v>
       </c>
       <c r="I153">
-        <v>3.190070614359172</v>
+        <v>2.866067165501025</v>
       </c>
       <c r="J153">
-        <v>-1.40625</v>
+        <v>-2.39752358490566</v>
       </c>
     </row>
     <row r="154" spans="2:10">
       <c r="B154">
-        <v>342.5234768422226</v>
+        <v>8318.083456746332</v>
       </c>
       <c r="C154">
-        <v>564.6108777448306</v>
+        <v>10996.73892954071</v>
       </c>
       <c r="D154">
-        <v>-1.2493944464178</v>
+        <v>-2.128106937965963</v>
       </c>
       <c r="E154">
-        <v>1.004413121438821</v>
+        <v>0.9074754189316144</v>
       </c>
       <c r="F154">
-        <v>0.01241402690853616</v>
+        <v>0.4219114971746399</v>
       </c>
       <c r="G154">
-        <v>352.7022316328644</v>
+        <v>7666.270493504981</v>
       </c>
       <c r="H154">
-        <v>409.504136367898</v>
+        <v>9675.661928978416</v>
       </c>
       <c r="I154">
-        <v>3.111945614359172</v>
+        <v>2.732871410784043</v>
       </c>
       <c r="J154">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="155" spans="2:10">
       <c r="B155">
-        <v>347.7555224867393</v>
+        <v>8967.317461804545</v>
       </c>
       <c r="C155">
-        <v>583.352753593517</v>
+        <v>12002.38890780073</v>
       </c>
       <c r="D155">
-        <v>-1.09999813847547</v>
+        <v>-1.866135289498418</v>
       </c>
       <c r="E155">
-        <v>0.9663703564575163</v>
+        <v>0.8693945306231963</v>
       </c>
       <c r="F155">
-        <v>0.1055604944628664</v>
+        <v>0.4741271808661804</v>
       </c>
       <c r="G155">
-        <v>347.5775315027031</v>
+        <v>7619.035858134165</v>
       </c>
       <c r="H155">
-        <v>409.6561130828006</v>
+        <v>9696.119803542868</v>
       </c>
       <c r="I155">
-        <v>3.043586239359172</v>
+        <v>2.616325125406685</v>
       </c>
       <c r="J155">
-        <v>-1.09375</v>
+        <v>-1.864740566037736</v>
       </c>
     </row>
     <row r="156" spans="2:10">
       <c r="B156">
-        <v>358.7623447234053</v>
+        <v>9814.134122418078</v>
       </c>
       <c r="C156">
-        <v>574.1787639267333</v>
+        <v>12206.61390570059</v>
       </c>
       <c r="D156">
-        <v>-0.9379569349072421</v>
+        <v>-1.607017766610048</v>
       </c>
       <c r="E156">
-        <v>0.9823448945755894</v>
+        <v>0.8079138576338694</v>
       </c>
       <c r="F156">
-        <v>0.1686744062218699</v>
+        <v>0.6016782160996039</v>
       </c>
       <c r="G156">
-        <v>343.204088666155</v>
+        <v>7580.862736883782</v>
       </c>
       <c r="H156">
-        <v>410.086116178921</v>
+        <v>9718.244082688181</v>
       </c>
       <c r="I156">
-        <v>2.984992489359172</v>
+        <v>2.516428309368949</v>
       </c>
       <c r="J156">
-        <v>-0.9375</v>
+        <v>-1.598349056603774</v>
       </c>
     </row>
     <row r="157" spans="2:10">
       <c r="B157">
-        <v>330.202919910808</v>
+        <v>10217.0299191429</v>
       </c>
       <c r="C157">
-        <v>578.5995674058788</v>
+        <v>13349.78747098839</v>
       </c>
       <c r="D157">
-        <v>-0.7827533636812255</v>
+        <v>-1.325136853286836</v>
       </c>
       <c r="E157">
-        <v>0.9306280215577294</v>
+        <v>0.7591023367258863</v>
       </c>
       <c r="F157">
-        <v>0.2131879845468267</v>
+        <v>0.6404074949820092</v>
       </c>
       <c r="G157">
-        <v>339.5867916723096</v>
+        <v>7551.049122906608</v>
       </c>
       <c r="H157">
-        <v>410.6572619858561</v>
+        <v>9739.761592367466</v>
       </c>
       <c r="I157">
-        <v>2.936164364359172</v>
+        <v>2.433180962670836</v>
       </c>
       <c r="J157">
-        <v>-0.78125</v>
+        <v>-1.331957547169811</v>
       </c>
     </row>
     <row r="158" spans="2:10">
       <c r="B158">
-        <v>325.8335304535871</v>
+        <v>10234.46961679007</v>
       </c>
       <c r="C158">
-        <v>606.715492107674</v>
+        <v>14556.23931787623</v>
       </c>
       <c r="D158">
-        <v>-0.6216503126327098</v>
+        <v>-1.072827096546097</v>
       </c>
       <c r="E158">
-        <v>0.9646868998545218</v>
+        <v>0.7715623756490846</v>
       </c>
       <c r="F158">
-        <v>0.2474462656138953</v>
+        <v>0.7148975440951063</v>
       </c>
       <c r="G158">
-        <v>336.7187046339175</v>
+        <v>7528.712194662067</v>
       </c>
       <c r="H158">
-        <v>411.254878575204</v>
+        <v>9758.899217856333</v>
       </c>
       <c r="I158">
-        <v>2.897101864359172</v>
+        <v>2.366583085312345</v>
       </c>
       <c r="J158">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="159" spans="2:10">
       <c r="B159">
-        <v>314.1990770807267</v>
+        <v>11130.64511621957</v>
       </c>
       <c r="C159">
-        <v>631.3837779695227</v>
+        <v>15164.3839111766</v>
       </c>
       <c r="D159">
-        <v>-0.4732432900111616</v>
+        <v>-0.8006045218064656</v>
       </c>
       <c r="E159">
-        <v>0.968957333277137</v>
+        <v>0.6696017768169675</v>
       </c>
       <c r="F159">
-        <v>0.2256167073474511</v>
+        <v>0.7334627243181584</v>
       </c>
       <c r="G159">
-        <v>334.5867841252859</v>
+        <v>7512.951823649584</v>
       </c>
       <c r="H159">
-        <v>411.7867537219091</v>
+        <v>9774.335487936018</v>
       </c>
       <c r="I159">
-        <v>2.867804989359172</v>
+        <v>2.316634677293477</v>
       </c>
       <c r="J159">
-        <v>-0.46875</v>
+        <v>-0.7991745283018868</v>
       </c>
     </row>
     <row r="160" spans="2:10">
       <c r="B160">
-        <v>318.1730928873806</v>
+        <v>11328.01873060197</v>
       </c>
       <c r="C160">
-        <v>632.9800882212447</v>
+        <v>15855.59629381591</v>
       </c>
       <c r="D160">
-        <v>-0.3252756800292552</v>
+        <v>-0.5378016989843883</v>
       </c>
       <c r="E160">
-        <v>0.9717089453651819</v>
+        <v>0.6462393013907788</v>
       </c>
       <c r="F160">
-        <v>0.3112747453370677</v>
+        <v>0.7840677587058569</v>
       </c>
       <c r="G160">
-        <v>333.1765003904036</v>
+        <v>7502.971811177268</v>
       </c>
       <c r="H160">
-        <v>412.1828181094023</v>
+        <v>9785.138085736588</v>
       </c>
       <c r="I160">
-        <v>2.848273739359172</v>
+        <v>2.283335738614232</v>
       </c>
       <c r="J160">
-        <v>-0.3125</v>
+        <v>-0.5327830188679246</v>
       </c>
     </row>
     <row r="161" spans="2:10">
       <c r="B161">
-        <v>349.230347745761</v>
+        <v>11548.90815508309</v>
       </c>
       <c r="C161">
-        <v>618.6351120096292</v>
+        <v>15833.98488929326</v>
       </c>
       <c r="D161">
-        <v>-0.1523667547339811</v>
+        <v>-0.2742912901866228</v>
       </c>
       <c r="E161">
-        <v>0.9554833919661139</v>
+        <v>0.6610970701605768</v>
       </c>
       <c r="F161">
-        <v>0.2825136981880912</v>
+        <v>0.8100391034583627</v>
       </c>
       <c r="G161">
-        <v>332.4753605842043</v>
+        <v>7498.164395477606</v>
       </c>
       <c r="H161">
-        <v>412.394583959202</v>
+        <v>9790.702521587396</v>
       </c>
       <c r="I161">
-        <v>2.838508114359172</v>
+        <v>2.266686269274609</v>
       </c>
       <c r="J161">
-        <v>-0.15625</v>
+        <v>-0.2663915094339623</v>
       </c>
     </row>
     <row r="162" spans="2:10">
       <c r="B162">
-        <v>371.9327705581114</v>
+        <v>11543.76305333404</v>
       </c>
       <c r="C162">
-        <v>619.979226840257</v>
+        <v>15795.93681344765</v>
       </c>
       <c r="D162">
-        <v>0.003257122031503411</v>
+        <v>-0.008769907647669118</v>
       </c>
       <c r="E162">
-        <v>0.9258561744698618</v>
+        <v>0.650143610533201</v>
       </c>
       <c r="F162">
-        <v>0.2925029684301558</v>
+        <v>0.7580243745381156</v>
       </c>
       <c r="G162">
-        <v>332.4753605842043</v>
+        <v>7498.164395477606</v>
       </c>
       <c r="H162">
-        <v>412.394583959202</v>
+        <v>9790.702521587396</v>
       </c>
       <c r="I162">
-        <v>2.838508114359172</v>
+        <v>2.266686269274609</v>
       </c>
       <c r="J162">
         <v>0</v>
